--- a/olympus/M220.xlsx
+++ b/olympus/M220.xlsx
@@ -245,23 +245,23 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>2022-07-08 23:00:00</t>
+          <t>2022-07-08 22:00:00</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
-        <v>0.17810946702957153</v>
+        <v>0.1244591623544693</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.062477823346853256</v>
+        <v>0.062426235526800156</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2.1810054779052734</v>
+        <v>0.0</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>2.129617929458618</v>
+        <v>2.2191388607025146</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2.206984758377075</v>
+        <v>2.31134295463562</v>
       </c>
       <c r="G3" s="2" t="n">
         <v>0.0</v>
@@ -270,56 +270,56 @@
         <v>0.0</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.0</v>
+        <v>4.84499979019165</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>40.43217468261719</v>
+        <v>40.53608703613281</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>-73.71863555908203</v>
+        <v>-74.0214614868164</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1014.4249877929688</v>
+        <v>1014.427978515625</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>6.5</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>4.900000095367432</v>
+        <v>7.0</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>5.0</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>18.842815399169922</v>
+        <v>18.799999237060547</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>22.926198959350586</v>
+        <v>26.021602630615234</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 01:00:00</t>
+          <t>2022-07-08 23:00:00</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
-        <v>0.20154643058776855</v>
+        <v>0.17810946702957153</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.06258100271224976</v>
+        <v>0.062477823346853256</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>2.4118709564208984</v>
+        <v>2.1810054779052734</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>2.383714199066162</v>
+        <v>2.129617929458618</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>2.5176990032196045</v>
+        <v>2.206984758377075</v>
       </c>
       <c r="G4" s="2" t="n">
         <v>0.0</v>
@@ -331,53 +331,53 @@
         <v>0.0</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>40.36420440673828</v>
+        <v>40.43217468261719</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>-72.87215423583984</v>
+        <v>-73.71863555908203</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1014.484375</v>
+        <v>1014.4249877929688</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>4.900000095367432</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>5.0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>19.800352096557617</v>
+        <v>18.842815399169922</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>25.700000762939453</v>
+        <v>22.926198959350586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 03:00:00</t>
+          <t>2022-07-09 00:00:00</t>
         </is>
       </c>
       <c r="B5" s="2" t="n">
-        <v>0.17799310386180878</v>
+        <v>0.17888151109218597</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.06268417835235596</v>
+        <v>0.06252940744161606</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>2.481265068054199</v>
+        <v>2.4775187969207764</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>2.4588613510131836</v>
+        <v>2.4616520404815674</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>2.594446897506714</v>
+        <v>2.585387945175171</v>
       </c>
       <c r="G5" s="2" t="n">
         <v>0.0</v>
@@ -389,53 +389,53 @@
         <v>0.0</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>40.374916076660156</v>
+        <v>40.37748718261719</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>-71.9913330078125</v>
+        <v>-73.30615234375</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1014.5437622070312</v>
+        <v>1014.4547119140625</v>
       </c>
       <c r="M5" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="N5" s="2" t="n">
         <v>6.0</v>
       </c>
-      <c r="N5" s="2" t="n">
-        <v>6.099999904632568</v>
-      </c>
       <c r="O5" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>5.700000286102295</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>20.633468627929688</v>
+        <v>19.99956512451172</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>25.4863224029541</v>
+        <v>24.223299026489258</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 05:00:00</t>
+          <t>2022-07-09 01:00:00</t>
         </is>
       </c>
       <c r="B6" s="2" t="n">
-        <v>0.17700618505477905</v>
+        <v>0.20154643058776855</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.06278735399246216</v>
+        <v>0.06258100271224976</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>2.4895191192626953</v>
+        <v>2.4118709564208984</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>2.4560906887054443</v>
+        <v>2.383714199066162</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>2.6111013889312744</v>
+        <v>2.5176990032196045</v>
       </c>
       <c r="G6" s="2" t="n">
         <v>0.0</v>
@@ -447,53 +447,53 @@
         <v>0.0</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>40.401737213134766</v>
+        <v>40.36420440673828</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>-71.1196517944336</v>
+        <v>-72.87215423583984</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1014.6031494140625</v>
+        <v>1014.484375</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>6.099999904632568</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>5.599999904632568</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>20.899999618530273</v>
+        <v>19.800352096557617</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>24.974462509155273</v>
+        <v>25.700000762939453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 07:00:00</t>
+          <t>2022-07-09 02:00:00</t>
         </is>
       </c>
       <c r="B7" s="2" t="n">
-        <v>0.17845818400382996</v>
+        <v>0.3313311040401459</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>0.06289052963256836</v>
+        <v>0.06263259053230286</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>2.448349952697754</v>
+        <v>2.505873203277588</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>2.4499306678771973</v>
+        <v>2.4856369495391846</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>2.5153720378875732</v>
+        <v>2.626873254776001</v>
       </c>
       <c r="G7" s="2" t="n">
         <v>0.0</v>
@@ -505,53 +505,53 @@
         <v>0.0</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>40.41716384887695</v>
+        <v>40.380435943603516</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>-70.25850677490234</v>
+        <v>-72.43486785888672</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1014.6625366210938</v>
+        <v>1014.5140991210938</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>6.0</v>
       </c>
       <c r="N7" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="O7" s="2" t="n">
         <v>6.0</v>
-      </c>
-      <c r="O7" s="2" t="n">
-        <v>5.800000190734863</v>
       </c>
       <c r="P7" s="2" t="n">
         <v>5.800000190734863</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>21.2997989654541</v>
+        <v>20.800199508666992</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>24.64378547668457</v>
+        <v>25.431039810180664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 09:00:00</t>
+          <t>2022-07-09 03:00:00</t>
         </is>
       </c>
       <c r="B8" s="2" t="n">
-        <v>0.17739197611808777</v>
+        <v>0.17799310386180878</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>0.06299370527267456</v>
+        <v>0.06268417835235596</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>2.4711594581604004</v>
+        <v>2.481265068054199</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>2.4755287170410156</v>
+        <v>2.4588613510131836</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>2.596132278442383</v>
+        <v>2.594446897506714</v>
       </c>
       <c r="G8" s="2" t="n">
         <v>0.0</v>
@@ -563,53 +563,53 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>40.43275451660156</v>
+        <v>40.374916076660156</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>-69.3909912109375</v>
+        <v>-71.9913330078125</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1014.721923828125</v>
+        <v>1014.5437622070312</v>
       </c>
       <c r="M8" s="2" t="n">
         <v>6.0</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="O8" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="P8" s="2" t="n">
         <v>5.900000095367432</v>
       </c>
-      <c r="P8" s="2" t="n">
-        <v>6.0</v>
-      </c>
       <c r="Q8" s="2" t="n">
-        <v>21.399799346923828</v>
+        <v>20.633468627929688</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>23.812374114990234</v>
+        <v>25.4863224029541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 11:00:00</t>
+          <t>2022-07-09 04:00:00</t>
         </is>
       </c>
       <c r="B9" s="2" t="n">
-        <v>0.2096857875585556</v>
+        <v>0.1778258979320526</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>0.06309688091278076</v>
+        <v>0.06273576617240906</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>2.6987361907958984</v>
+        <v>2.4926350116729736</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>2.6651172637939453</v>
+        <v>2.4505224227905273</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>2.590315580368042</v>
+        <v>2.599616050720215</v>
       </c>
       <c r="G9" s="2" t="n">
         <v>0.0</v>
@@ -621,53 +621,53 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>40.71598434448242</v>
+        <v>40.39412307739258</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>-68.59400939941406</v>
+        <v>-71.55296325683594</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1014.7813110351562</v>
+        <v>1014.5734252929688</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.0</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>6.0</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>20.433311462402344</v>
+        <v>21.200000762939453</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>24.944576263427734</v>
+        <v>25.29756736755371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 13:00:00</t>
+          <t>2022-07-09 05:00:00</t>
         </is>
       </c>
       <c r="B10" s="2" t="n">
-        <v>0.2510649561882019</v>
+        <v>0.17700618505477905</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>0.06320006400346756</v>
+        <v>0.06278735399246216</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>2.784212589263916</v>
+        <v>2.4895191192626953</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>2.7347183227539062</v>
+        <v>2.4560906887054443</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>2.6010005474090576</v>
+        <v>2.6111013889312744</v>
       </c>
       <c r="G10" s="2" t="n">
         <v>0.0</v>
@@ -679,56 +679,56 @@
         <v>0.0</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>41.0977783203125</v>
+        <v>40.401737213134766</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>-67.84310913085938</v>
+        <v>-71.1196517944336</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1014.8406982421875</v>
+        <v>1014.6031494140625</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>20.766801834106445</v>
+        <v>20.899999618530273</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>24.554912567138672</v>
+        <v>24.974462509155273</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 15:00:00</t>
+          <t>2022-07-09 06:00:00</t>
         </is>
       </c>
       <c r="B11" s="2" t="n">
-        <v>0.1778043508529663</v>
+        <v>0.17659568786621094</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>0.06330323964357376</v>
+        <v>0.06283894181251526</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.0868139266967773</v>
+        <v>2.4456751346588135</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>2.064678907394409</v>
+        <v>2.4450533390045166</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.983224868774414</v>
+        <v>2.5642964839935303</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>2.1541800498962402</v>
+        <v>0.0</v>
       </c>
       <c r="H11" s="2" t="n">
         <v>0.0</v>
@@ -737,56 +737,56 @@
         <v>0.0</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>41.47045135498047</v>
+        <v>40.409446716308594</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>-67.1207504272461</v>
+        <v>-70.68636322021484</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1014.9000244140625</v>
+        <v>1014.6328125</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>20.99959945678711</v>
+        <v>21.94992446899414</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>20.288137435913086</v>
+        <v>24.700000762939453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 17:00:00</t>
+          <t>2022-07-09 07:00:00</t>
         </is>
       </c>
       <c r="B12" s="2" t="n">
-        <v>0.17639091610908508</v>
+        <v>0.17845818400382996</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>0.06340641528367996</v>
+        <v>0.06289052963256836</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>2.783938407897949</v>
+        <v>2.448349952697754</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>2.753290891647339</v>
+        <v>2.4499306678771973</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2.620136022567749</v>
+        <v>2.5153720378875732</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>2.923757314682007</v>
+        <v>0.0</v>
       </c>
       <c r="H12" s="2" t="n">
         <v>0.0</v>
@@ -795,53 +795,53 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>41.855159759521484</v>
+        <v>40.41716384887695</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>-66.35706329345703</v>
+        <v>-70.25850677490234</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1014.9594116210938</v>
+        <v>1014.6625366210938</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>9.800000190734863</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>10.0</v>
+        <v>6.0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>22.604965209960938</v>
+        <v>21.2997989654541</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>21.31913185119629</v>
+        <v>24.64378547668457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 19:00:00</t>
+          <t>2022-07-09 08:00:00</t>
         </is>
       </c>
       <c r="B13" s="2" t="n">
-        <v>0.18289302289485931</v>
+        <v>0.1771668940782547</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>0.06350959092378616</v>
+        <v>0.06294211745262146</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5247669219970703</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.4912199974060059</v>
+        <v>2.5255303382873535</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.4768407344818115</v>
+        <v>2.6116714477539062</v>
       </c>
       <c r="G13" s="2" t="n">
         <v>0.0</v>
@@ -853,56 +853,56 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>42.235294342041016</v>
+        <v>40.42498779296875</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>-66.63765716552734</v>
+        <v>-69.82858276367188</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1014.94677734375</v>
+        <v>1014.6921997070312</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>0.6000000238418579</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>0.699999988079071</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>0.6000000238418579</v>
+        <v>6.0</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>0.6000000238418579</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>8.742815971374512</v>
+        <v>21.200000762939453</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>21.843505859375</v>
+        <v>23.835058212280273</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 21:00:00</t>
+          <t>2022-07-09 09:00:00</t>
         </is>
       </c>
       <c r="B14" s="2" t="n">
-        <v>0.24314624071121216</v>
+        <v>0.17739197611808777</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>0.06361276656389236</v>
+        <v>0.06299370527267456</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>2.468024492263794</v>
+        <v>2.4711594581604004</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>2.4516570568084717</v>
+        <v>2.4755287170410156</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>2.338803291320801</v>
+        <v>2.596132278442383</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>2.5850813388824463</v>
+        <v>0.0</v>
       </c>
       <c r="H14" s="2" t="n">
         <v>0.0</v>
@@ -911,56 +911,56 @@
         <v>0.0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>42.47093200683594</v>
+        <v>40.43275451660156</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>-65.98198699951172</v>
+        <v>-69.3909912109375</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1014.7787475585938</v>
+        <v>1014.721923828125</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>8.5</v>
+        <v>6.0</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>8.100000381469727</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>8.40000057220459</v>
+        <v>6.0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>20.999797821044922</v>
+        <v>21.399799346923828</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>19.44135093688965</v>
+        <v>23.812374114990234</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>2022-07-09 23:00:00</t>
+          <t>2022-07-09 10:00:00</t>
         </is>
       </c>
       <c r="B15" s="2" t="n">
-        <v>0.17578504979610443</v>
+        <v>0.17750506103038788</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>0.06371594965457916</v>
+        <v>0.06304529309272766</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>2.628436326980591</v>
+        <v>2.6405396461486816</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>2.6306674480438232</v>
+        <v>2.6226444244384766</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>2.7146096229553223</v>
+        <v>2.658069610595703</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>2.818894624710083</v>
+        <v>0.0</v>
       </c>
       <c r="H15" s="2" t="n">
         <v>0.0</v>
@@ -969,56 +969,56 @@
         <v>0.0</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>42.72079086303711</v>
+        <v>40.526573181152344</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>-65.0188217163086</v>
+        <v>-68.97970581054688</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1014.6107177734375</v>
+        <v>1014.7515869140625</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.5</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>6.099999904632568</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>21.866687774658203</v>
+        <v>20.440099716186523</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>19.4912052154541</v>
+        <v>24.98288917541504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 01:00:00</t>
+          <t>2022-07-09 11:00:00</t>
         </is>
       </c>
       <c r="B16" s="2" t="n">
-        <v>0.19863362610340118</v>
+        <v>0.2096857875585556</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>0.06381912529468536</v>
+        <v>0.06309688091278076</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>2.637147903442383</v>
+        <v>2.6987361907958984</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>2.6318342685699463</v>
+        <v>2.6651172637939453</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2.713026285171509</v>
+        <v>2.590315580368042</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2.7867767810821533</v>
+        <v>0.0</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0.0</v>
@@ -1027,56 +1027,56 @@
         <v>0.0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>43.09642791748047</v>
+        <v>40.71598434448242</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>-64.11280059814453</v>
+        <v>-68.59400939941406</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1014.442626953125</v>
+        <v>1014.7813110351562</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>21.749324798583984</v>
+        <v>20.433311462402344</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>20.423656463623047</v>
+        <v>24.944576263427734</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 03:00:00</t>
+          <t>2022-07-09 12:00:00</t>
         </is>
       </c>
       <c r="B17" s="2" t="n">
-        <v>0.17738360166549683</v>
+        <v>0.17734569311141968</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>0.06392230093479156</v>
+        <v>0.06314847618341446</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>2.5395946502685547</v>
+        <v>2.7099368572235107</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>2.5569193363189697</v>
+        <v>2.7089810371398926</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>2.5714058876037598</v>
+        <v>2.5703909397125244</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>2.64994478225708</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="2" t="n">
         <v>0.0</v>
@@ -1085,56 +1085,56 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>43.45022964477539</v>
+        <v>40.90354919433594</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>-63.231258392333984</v>
+        <v>-68.21256256103516</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1014.2745971679688</v>
+        <v>1014.8109741210938</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>9.5</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>22.80080223083496</v>
+        <v>20.650026321411133</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>20.372943878173828</v>
+        <v>24.85553550720215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 05:00:00</t>
+          <t>2022-07-09 13:00:00</t>
         </is>
       </c>
       <c r="B18" s="2" t="n">
-        <v>0.17759014666080475</v>
+        <v>0.2510649561882019</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>0.06402547657489777</v>
+        <v>0.06320006400346756</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>2.652881622314453</v>
+        <v>2.784212589263916</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>2.655646800994873</v>
+        <v>2.7347183227539062</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>2.669887065887451</v>
+        <v>2.6010005474090576</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>2.7521164417266846</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0.0</v>
@@ -1143,56 +1143,56 @@
         <v>0.0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>43.7918701171875</v>
+        <v>41.0977783203125</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>-62.34046936035156</v>
+        <v>-67.84310913085938</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1014.1065673828125</v>
+        <v>1014.8406982421875</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>10.0</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>9.5</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>22.70053482055664</v>
+        <v>20.766801834106445</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>19.86359405517578</v>
+        <v>24.554912567138672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 07:00:00</t>
+          <t>2022-07-09 14:00:00</t>
         </is>
       </c>
       <c r="B19" s="2" t="n">
-        <v>0.18739581108093262</v>
+        <v>0.17729420959949493</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>0.06412865221500397</v>
+        <v>0.06325165182352066</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>2.6038618087768555</v>
+        <v>2.7753794193267822</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>2.6292383670806885</v>
+        <v>2.726757526397705</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>2.6037068367004395</v>
+        <v>2.599060297012329</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>2.695456027984619</v>
+        <v>0.0</v>
       </c>
       <c r="H19" s="2" t="n">
         <v>0.0</v>
@@ -1201,56 +1201,56 @@
         <v>0.0</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>44.14030075073242</v>
+        <v>41.286930084228516</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>-61.435447692871094</v>
+        <v>-67.47868347167969</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1013.9385375976562</v>
+        <v>1014.870361328125</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>6.5</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>9.5</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>23.12032127380371</v>
+        <v>20.500200271606445</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>18.899999618530273</v>
+        <v>20.777606964111328</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 09:00:00</t>
+          <t>2022-07-09 15:00:00</t>
         </is>
       </c>
       <c r="B20" s="2" t="n">
-        <v>0.17901737987995148</v>
+        <v>0.1778043508529663</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>0.06423183530569077</v>
+        <v>0.06330323964357376</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>2.6439766883850098</v>
+        <v>2.0868139266967773</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>2.661381721496582</v>
+        <v>2.064678907394409</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>2.6327521800994873</v>
+        <v>1.983224868774414</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>2.7611584663391113</v>
+        <v>2.1541800498962402</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0.0</v>
@@ -1259,56 +1259,56 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>44.47367477416992</v>
+        <v>41.47045135498047</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>-60.50196838378906</v>
+        <v>-67.1207504272461</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1013.7705078125</v>
+        <v>1014.9000244140625</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>9.5</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>23.799732208251953</v>
+        <v>20.99959945678711</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>18.090784072875977</v>
+        <v>20.288137435913086</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 11:00:00</t>
+          <t>2022-07-09 16:00:00</t>
         </is>
       </c>
       <c r="B21" s="2" t="n">
-        <v>0.23667798936367035</v>
+        <v>0.1775444895029068</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>0.06433501094579697</v>
+        <v>0.06335482746362686</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>2.5509467124938965</v>
+        <v>2.5784881114959717</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>2.568179130554199</v>
+        <v>2.54848313331604</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>2.5659632682800293</v>
+        <v>2.403759479522705</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>2.6266369819641113</v>
+        <v>2.6307082176208496</v>
       </c>
       <c r="H21" s="2" t="n">
         <v>0.0</v>
@@ -1317,56 +1317,56 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>44.73770523071289</v>
+        <v>41.65462112426758</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>-59.50598907470703</v>
+        <v>-66.75928497314453</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1013.6024780273438</v>
+        <v>1014.9297485351562</v>
       </c>
       <c r="M21" s="2" t="n">
         <v>8.800000190734863</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.5</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>23.33326530456543</v>
+        <v>21.25</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>20.541025161743164</v>
+        <v>20.54653549194336</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 13:00:00</t>
+          <t>2022-07-09 17:00:00</t>
         </is>
       </c>
       <c r="B22" s="2" t="n">
-        <v>0.17742851376533508</v>
+        <v>0.17639091610908508</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>0.06443818658590317</v>
+        <v>0.06340641528367996</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>2.5938913822174072</v>
+        <v>2.783938407897949</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>2.658161163330078</v>
+        <v>2.753290891647339</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>2.615427017211914</v>
+        <v>2.620136022567749</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>2.6688740253448486</v>
+        <v>2.923757314682007</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0.0</v>
@@ -1375,56 +1375,56 @@
         <v>0.0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>45.01053237915039</v>
+        <v>41.855159759521484</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>-58.51614761352539</v>
+        <v>-66.35706329345703</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1013.4343872070312</v>
+        <v>1014.9594116210938</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.800000190734863</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>8.90000057220459</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>23.801498413085938</v>
+        <v>22.604965209960938</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>22.626314163208008</v>
+        <v>21.31913185119629</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 15:00:00</t>
+          <t>2022-07-09 18:00:00</t>
         </is>
       </c>
       <c r="B23" s="2" t="n">
-        <v>0.17736117541790009</v>
+        <v>0.1802842617034912</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>0.06454136222600937</v>
+        <v>0.06345800310373306</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>2.7041680812835693</v>
+        <v>2.3448851108551025</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>2.854806900024414</v>
+        <v>2.319671630859375</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>2.6670751571655273</v>
+        <v>2.1987311840057373</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>2.7313101291656494</v>
+        <v>0.0</v>
       </c>
       <c r="H23" s="2" t="n">
         <v>0.0</v>
@@ -1433,56 +1433,56 @@
         <v>0.0</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>45.275577545166016</v>
+        <v>42.07173538208008</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>-57.51520919799805</v>
+        <v>-66.42891693115234</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1013.266357421875</v>
+        <v>1014.9891357421875</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>5.099999904632568</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>9.699999809265137</v>
+        <v>5.200000286102295</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>4.800000190734863</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>9.600000381469727</v>
+        <v>5.0</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>24.30059814453125</v>
+        <v>17.89940071105957</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>22.77440643310547</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 17:00:00</t>
+          <t>2022-07-09 19:00:00</t>
         </is>
       </c>
       <c r="B24" s="2" t="n">
-        <v>0.1777116358280182</v>
+        <v>0.18289302289485931</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>0.06464453786611557</v>
+        <v>0.06350959092378616</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>2.0476279258728027</v>
+        <v>0.0</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>2.15447998046875</v>
+        <v>1.4912199974060059</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>2.072733163833618</v>
+        <v>1.4768407344818115</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>2.125948190689087</v>
+        <v>0.0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0.0</v>
@@ -1491,56 +1491,56 @@
         <v>0.0</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>45.51869201660156</v>
+        <v>42.235294342041016</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>-56.55933380126953</v>
+        <v>-66.63765716552734</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1013.1000366210938</v>
+        <v>1014.94677734375</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>0.699999988079071</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>6.5</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>6.5</v>
+        <v>0.6000000238418579</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>20.9329776763916</v>
+        <v>8.742815971374512</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>21.808069229125977</v>
+        <v>21.843505859375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 19:00:00</t>
+          <t>2022-07-09 20:00:00</t>
         </is>
       </c>
       <c r="B25" s="2" t="n">
-        <v>0.19109506905078888</v>
+        <v>0.18702919781208038</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>0.06474771350622177</v>
+        <v>0.06356117874383926</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>1.846685528755188</v>
+        <v>2.2122557163238525</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.8998758792877197</v>
+        <v>2.2098941802978516</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>1.8400142192840576</v>
+        <v>2.110038995742798</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>1.8747944831848145</v>
+        <v>2.2972252368927</v>
       </c>
       <c r="H25" s="2" t="n">
         <v>0.0</v>
@@ -1549,56 +1549,56 @@
         <v>0.0</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>45.743709564208984</v>
+        <v>42.352561950683594</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>-55.64503479003906</v>
+        <v>-66.42096710205078</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1012.9348754882812</v>
+        <v>1014.8627319335938</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>7.599999904632568</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>5.400000095367432</v>
+        <v>7.200000286102295</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>5.5</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>20.5</v>
+        <v>21.039867401123047</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>20.789125442504883</v>
+        <v>19.138399124145508</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 21:00:00</t>
+          <t>2022-07-09 21:00:00</t>
         </is>
       </c>
       <c r="B26" s="2" t="n">
-        <v>0.18312238156795502</v>
+        <v>0.24314624071121216</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>0.06485089659690857</v>
+        <v>0.06361276656389236</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>2.552123785018921</v>
+        <v>2.468024492263794</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>2.697669506072998</v>
+        <v>2.4516570568084717</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>2.6550116539001465</v>
+        <v>2.338803291320801</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>2.5893099308013916</v>
+        <v>2.5850813388824463</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0.0</v>
@@ -1607,56 +1607,56 @@
         <v>0.0</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>45.97108459472656</v>
+        <v>42.47093200683594</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>-54.65113830566406</v>
+        <v>-65.98198699951172</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1012.7696533203125</v>
+        <v>1014.7787475585938</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.5</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.40000057220459</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>22.94962501525879</v>
+        <v>20.999797821044922</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>18.924470901489258</v>
+        <v>19.44135093688965</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>2022-07-10 23:00:00</t>
+          <t>2022-07-09 22:00:00</t>
         </is>
       </c>
       <c r="B27" s="2" t="n">
-        <v>0.2483011931180954</v>
+        <v>0.1781471222639084</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>0.06495407223701477</v>
+        <v>0.06366435438394547</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>2.5472121238708496</v>
+        <v>2.5951762199401855</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>2.7215356826782227</v>
+        <v>2.616122245788574</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>2.651010751724243</v>
+        <v>2.7284996509552</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>2.6258296966552734</v>
+        <v>2.67604398727417</v>
       </c>
       <c r="H27" s="2" t="n">
         <v>0.0</v>
@@ -1665,56 +1665,56 @@
         <v>0.0</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>46.194068908691406</v>
+        <v>42.58617401123047</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>-53.63453674316406</v>
+        <v>-65.51045227050781</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1012.6044921875</v>
+        <v>1014.6947021484375</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>9.399799346923828</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.0</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>22.699932098388672</v>
+        <v>22.100000381469727</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>17.140403747558594</v>
+        <v>19.167057037353516</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 01:00:00</t>
+          <t>2022-07-09 23:00:00</t>
         </is>
       </c>
       <c r="B28" s="2" t="n">
-        <v>0.18519094586372375</v>
+        <v>0.17578504979610443</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>0.06505724787712097</v>
+        <v>0.06371594965457916</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>2.5068843364715576</v>
+        <v>2.628436326980591</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>2.6610612869262695</v>
+        <v>2.6306674480438232</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>2.599736213684082</v>
+        <v>2.7146096229553223</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>2.5508830547332764</v>
+        <v>2.818894624710083</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0.0</v>
@@ -1723,56 +1723,56 @@
         <v>0.0</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>46.45642852783203</v>
+        <v>42.72079086303711</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>-52.625064849853516</v>
+        <v>-65.0188217163086</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1012.4392700195312</v>
+        <v>1014.6107177734375</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>22.957500457763672</v>
+        <v>21.866687774658203</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>15.508026123046875</v>
+        <v>19.4912052154541</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 03:00:00</t>
+          <t>2022-07-10 00:00:00</t>
         </is>
       </c>
       <c r="B29" s="2" t="n">
-        <v>0.1773708164691925</v>
+        <v>0.17693395912647247</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>0.06516042351722717</v>
+        <v>0.06376753747463226</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>2.506477117538452</v>
+        <v>2.630457639694214</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>2.666116237640381</v>
+        <v>2.6355843544006348</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>2.595228672027588</v>
+        <v>2.7200865745544434</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2.533538818359375</v>
+        <v>2.7338035106658936</v>
       </c>
       <c r="H29" s="2" t="n">
         <v>0.0</v>
@@ -1781,56 +1781,56 @@
         <v>0.0</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>46.734310150146484</v>
+        <v>42.9107666015625</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>-51.62191390991211</v>
+        <v>-64.56431579589844</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1012.2741088867188</v>
+        <v>1014.5266723632812</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N29" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>22.301010131835938</v>
+        <v>21.499597549438477</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>16.09579086303711</v>
+        <v>19.269811630249023</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 05:00:00</t>
+          <t>2022-07-10 01:00:00</t>
         </is>
       </c>
       <c r="B30" s="2" t="n">
-        <v>0.17835049331188202</v>
+        <v>0.19863362610340118</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>0.06526359915733337</v>
+        <v>0.06381912529468536</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>2.5090107917785645</v>
+        <v>2.637147903442383</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>2.6845335960388184</v>
+        <v>2.6318342685699463</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>2.5941085815429688</v>
+        <v>2.713026285171509</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>2.5385067462921143</v>
+        <v>2.7867767810821533</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0.0</v>
@@ -1839,56 +1839,56 @@
         <v>0.0</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>47.01172637939453</v>
+        <v>43.09642791748047</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>-50.622215270996094</v>
+        <v>-64.11280059814453</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1012.10888671875</v>
+        <v>1014.442626953125</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>9.199999809265137</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N30" s="2" t="n">
         <v>9.300000190734863</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>23.133333206176758</v>
+        <v>21.749324798583984</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>15.694685935974121</v>
+        <v>20.423656463623047</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 07:00:00</t>
+          <t>2022-07-10 02:00:00</t>
         </is>
       </c>
       <c r="B31" s="2" t="n">
-        <v>0.1796487420797348</v>
+        <v>0.17726054787635803</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>0.06536678224802017</v>
+        <v>0.06387071311473846</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>2.5131869316101074</v>
+        <v>2.577195882797241</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>2.7178421020507812</v>
+        <v>2.580388069152832</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>2.5952494144439697</v>
+        <v>2.5770018100738525</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>2.554119348526001</v>
+        <v>2.6763832569122314</v>
       </c>
       <c r="H31" s="2" t="n">
         <v>0.0</v>
@@ -1897,56 +1897,56 @@
         <v>0.0</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>47.27305603027344</v>
+        <v>43.27662658691406</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>-49.63961410522461</v>
+        <v>-63.66694259643555</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1012.2415161132812</v>
+        <v>1014.358642578125</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.497817039489746</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>9.300000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>8.600000381469727</v>
+        <v>8.898909568786621</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>8.699999809265137</v>
+        <v>8.701090812683105</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>23.000402450561523</v>
+        <v>22.83302116394043</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>15.171882629394531</v>
+        <v>20.10884666442871</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 09:00:00</t>
+          <t>2022-07-10 03:00:00</t>
         </is>
       </c>
       <c r="B32" s="2" t="n">
-        <v>0.39554986357688904</v>
+        <v>0.17738360166549683</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>0.06546995788812637</v>
+        <v>0.06392230093479156</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>2.5397932529449463</v>
+        <v>2.5395946502685547</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5569193363189697</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>2.672039031982422</v>
+        <v>2.5714058876037598</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2.6319966316223145</v>
+        <v>2.64994478225708</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0.0</v>
@@ -1955,56 +1955,56 @@
         <v>0.0</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>47.52488708496094</v>
+        <v>43.45022964477539</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>-48.65187072753906</v>
+        <v>-63.231258392333984</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1012.9500732421875</v>
+        <v>1014.2745971679688</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>6.0</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>20.966711044311523</v>
+        <v>22.80080223083496</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>14.747750282287598</v>
+        <v>20.372943878173828</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 11:00:00</t>
+          <t>2022-07-10 04:00:00</t>
         </is>
       </c>
       <c r="B33" s="2" t="n">
-        <v>0.486073762178421</v>
+        <v>0.17763395607471466</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>0.06557313352823257</v>
+        <v>0.06397388875484467</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>2.6279799938201904</v>
+        <v>2.555471181869507</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5624783039093018</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>2.769975185394287</v>
+        <v>2.5754871368408203</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>2.689391613006592</v>
+        <v>2.658310890197754</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0.0</v>
@@ -2013,56 +2013,56 @@
         <v>0.0</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>47.755470275878906</v>
+        <v>43.62401580810547</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>-47.70845413208008</v>
+        <v>-62.78758239746094</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1013.6586303710938</v>
+        <v>1014.1906127929688</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>7.0</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.5</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>20.699800491333008</v>
+        <v>21.899999618530273</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>17.234210968017578</v>
+        <v>20.256591796875</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 13:00:00</t>
+          <t>2022-07-10 05:00:00</t>
         </is>
       </c>
       <c r="B34" s="2" t="n">
-        <v>0.5460363030433655</v>
+        <v>0.17759014666080475</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>0.06567630916833878</v>
+        <v>0.06402547657489777</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>2.748584270477295</v>
+        <v>2.652881622314453</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>0.0</v>
+        <v>2.655646800994873</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>2.8748886585235596</v>
+        <v>2.669887065887451</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>2.809068441390991</v>
+        <v>2.7521164417266846</v>
       </c>
       <c r="H34" s="2" t="n">
         <v>0.0</v>
@@ -2071,56 +2071,56 @@
         <v>0.0</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>47.990657806396484</v>
+        <v>43.7918701171875</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>-46.752418518066406</v>
+        <v>-62.34046936035156</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1014.3671875</v>
+        <v>1014.1065673828125</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>7.300000190734863</v>
+        <v>10.0</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.5</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>20.499401092529297</v>
+        <v>22.70053482055664</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>15.51713752746582</v>
+        <v>19.86359405517578</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 15:00:00</t>
+          <t>2022-07-10 06:00:00</t>
         </is>
       </c>
       <c r="B35" s="2" t="n">
-        <v>0.39546138048171997</v>
+        <v>0.1776677668094635</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>0.06577948480844498</v>
+        <v>0.06407706439495087</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>2.7319588661193848</v>
+        <v>2.6249897480010986</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6519811153411865</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>2.8532674312591553</v>
+        <v>2.6148595809936523</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>2.7957561016082764</v>
+        <v>2.7019731998443604</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0.0</v>
@@ -2129,56 +2129,56 @@
         <v>0.0</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>48.194156646728516</v>
+        <v>43.971744537353516</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>-45.78911209106445</v>
+        <v>-61.897037506103516</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1015.0757446289062</v>
+        <v>1014.0225219726562</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>7.0</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>21.400400161743164</v>
+        <v>23.350000381469727</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>16.738876342773438</v>
+        <v>18.901897430419922</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 17:00:00</t>
+          <t>2022-07-10 07:00:00</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
-        <v>0.4006040096282959</v>
+        <v>0.18739581108093262</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>0.06588266044855118</v>
+        <v>0.06412865221500397</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>2.6882383823394775</v>
+        <v>2.6038618087768555</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6292383670806885</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>2.831589460372925</v>
+        <v>2.6037068367004395</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>2.771681547164917</v>
+        <v>2.695456027984619</v>
       </c>
       <c r="H36" s="2" t="n">
         <v>0.0</v>
@@ -2187,56 +2187,56 @@
         <v>0.0</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>48.40315628051758</v>
+        <v>44.14030075073242</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>-44.80845260620117</v>
+        <v>-61.435447692871094</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1015.7843017578125</v>
+        <v>1013.9385375976562</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>7.0</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.5</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>22.0</v>
+        <v>23.12032127380371</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>16.38806915283203</v>
+        <v>18.899999618530273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 19:00:00</t>
+          <t>2022-07-10 08:00:00</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
-        <v>0.4187276363372803</v>
+        <v>0.20999875664710999</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>0.06598584353923798</v>
+        <v>0.06418024003505707</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>2.7182424068450928</v>
+        <v>2.603559970855713</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6260690689086914</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2.871849536895752</v>
+        <v>2.596393585205078</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>2.8081905841827393</v>
+        <v>2.7003917694091797</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0.0</v>
@@ -2245,56 +2245,56 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>48.60380935668945</v>
+        <v>44.32674789428711</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>-43.819766998291016</v>
+        <v>-60.9781494140625</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1016.4928588867188</v>
+        <v>1013.8544921875</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>22.2000675201416</v>
+        <v>23.499975204467773</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>15.68770980834961</v>
+        <v>18.899999618530273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 21:00:00</t>
+          <t>2022-07-10 09:00:00</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
-        <v>0.4311141073703766</v>
+        <v>0.17901737987995148</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>0.06608901917934418</v>
+        <v>0.06423183530569077</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>2.747591972351074</v>
+        <v>2.6439766883850098</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>0.0</v>
+        <v>2.661381721496582</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>2.893712282180786</v>
+        <v>2.6327521800994873</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>2.8343350887298584</v>
+        <v>2.7611584663391113</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>0.0</v>
@@ -2303,56 +2303,56 @@
         <v>0.0</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>48.798316955566406</v>
+        <v>44.47367477416992</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>-42.81171798706055</v>
+        <v>-60.50196838378906</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1017.201416015625</v>
+        <v>1013.7705078125</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>9.5</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>21.200525283813477</v>
+        <v>23.799732208251953</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>16.024538040161133</v>
+        <v>18.090784072875977</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>2022-07-11 23:00:00</t>
+          <t>2022-07-10 10:00:00</t>
         </is>
       </c>
       <c r="B39" s="2" t="n">
-        <v>0.4662301242351532</v>
+        <v>0.21471291780471802</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>0.06619219481945038</v>
+        <v>0.06428342312574387</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>2.7222578525543213</v>
+        <v>2.541440725326538</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>0.0</v>
+        <v>2.5271339416503906</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>2.854889154434204</v>
+        <v>2.5243546962738037</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>2.8150627613067627</v>
+        <v>2.625042676925659</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0.0</v>
@@ -2361,56 +2361,56 @@
         <v>0.0</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>48.97835159301758</v>
+        <v>44.60152053833008</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>-41.82646560668945</v>
+        <v>-60.005760192871094</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1017.9099731445312</v>
+        <v>1013.6864624023438</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>7.0</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>21.399999618530273</v>
+        <v>23.44278335571289</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>16.4847354888916</v>
+        <v>18.2174129486084</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 01:00:00</t>
+          <t>2022-07-10 11:00:00</t>
         </is>
       </c>
       <c r="B40" s="2" t="n">
-        <v>0.3723509609699249</v>
+        <v>0.23667798936367035</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>0.06629537045955658</v>
+        <v>0.06433501094579697</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>2.6588759422302246</v>
+        <v>2.5509467124938965</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>0.0</v>
+        <v>2.568179130554199</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>2.8055577278137207</v>
+        <v>2.5659632682800293</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>2.740190267562866</v>
+        <v>2.6266369819641113</v>
       </c>
       <c r="H40" s="2" t="n">
         <v>0.0</v>
@@ -2419,56 +2419,56 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>49.141014099121094</v>
+        <v>44.73770523071289</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>-40.887027740478516</v>
+        <v>-59.50598907470703</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1018.6185302734375</v>
+        <v>1013.6024780273438</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>20.579486846923828</v>
+        <v>23.33326530456543</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>16.82284927368164</v>
+        <v>20.541025161743164</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 03:00:00</t>
+          <t>2022-07-10 12:00:00</t>
         </is>
       </c>
       <c r="B41" s="2" t="n">
-        <v>0.3545994162559509</v>
+        <v>0.37037646770477295</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>0.06639854609966278</v>
+        <v>0.06438659876585007</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>2.6749484539031982</v>
+        <v>2.5569798946380615</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>0.0</v>
+        <v>2.582291603088379</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>2.825104236602783</v>
+        <v>2.5404868125915527</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>2.7483906745910645</v>
+        <v>2.6046500205993652</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0.0</v>
@@ -2477,56 +2477,56 @@
         <v>0.0</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>49.30379104614258</v>
+        <v>44.875221252441406</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>-39.923221588134766</v>
+        <v>-59.011905670166016</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1019.3270874023438</v>
+        <v>1013.5184326171875</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>21.300199508666992</v>
+        <v>23.999849319458008</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>17.15632438659668</v>
+        <v>21.950439453125</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 05:00:00</t>
+          <t>2022-07-10 13:00:00</t>
         </is>
       </c>
       <c r="B42" s="2" t="n">
-        <v>0.340786337852478</v>
+        <v>0.17742851376533508</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>0.06650172919034958</v>
+        <v>0.06443818658590317</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>2.693922519683838</v>
+        <v>2.5938913822174072</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>0.0</v>
+        <v>2.658161163330078</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>2.8415441513061523</v>
+        <v>2.615427017211914</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>2.7720537185668945</v>
+        <v>2.6688740253448486</v>
       </c>
       <c r="H42" s="2" t="n">
         <v>0.0</v>
@@ -2535,56 +2535,56 @@
         <v>0.0</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>49.455078125</v>
+        <v>45.01053237915039</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>-38.911781311035156</v>
+        <v>-58.51614761352539</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1020.0490112304688</v>
+        <v>1013.4343872070312</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>8.800000190734863</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.0</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>8.90000057220459</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>21.30060577392578</v>
+        <v>23.801498413085938</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>17.281469345092773</v>
+        <v>22.626314163208008</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 07:00:00</t>
+          <t>2022-07-10 14:00:00</t>
         </is>
       </c>
       <c r="B43" s="2" t="n">
-        <v>0.41336169838905334</v>
+        <v>0.18008378148078918</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>0.06660490483045578</v>
+        <v>0.06448977440595627</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>2.6862823963165283</v>
+        <v>2.6554832458496094</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>0.0</v>
+        <v>2.780284881591797</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>2.83866024017334</v>
+        <v>2.6253223419189453</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>2.7750325202941895</v>
+        <v>2.711150646209717</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0.0</v>
@@ -2593,56 +2593,56 @@
         <v>0.0</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>49.60309982299805</v>
+        <v>45.13605880737305</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>-37.886253356933594</v>
+        <v>-58.01771545410156</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1020.7978515625</v>
+        <v>1013.3504028320312</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>7.099999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>20.600996017456055</v>
+        <v>23.299800872802734</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>16.78873062133789</v>
+        <v>23.05423355102539</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 09:00:00</t>
+          <t>2022-07-10 15:00:00</t>
         </is>
       </c>
       <c r="B44" s="2" t="n">
-        <v>0.43614715337753296</v>
+        <v>0.17736117541790009</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>0.06670808047056198</v>
+        <v>0.06454136222600937</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>2.725374460220337</v>
+        <v>2.7041680812835693</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>0.0</v>
+        <v>2.854806900024414</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>2.8585970401763916</v>
+        <v>2.6670751571655273</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2.7882349491119385</v>
+        <v>2.7313101291656494</v>
       </c>
       <c r="H44" s="2" t="n">
         <v>0.0</v>
@@ -2651,56 +2651,56 @@
         <v>0.0</v>
       </c>
       <c r="J44" s="2" t="n">
-        <v>49.74528884887695</v>
+        <v>45.275577545166016</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>-36.832786560058594</v>
+        <v>-57.51520919799805</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>1021.5466918945312</v>
+        <v>1013.266357421875</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>7.0</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N44" s="2" t="n">
-        <v>7.400000095367432</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O44" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P44" s="2" t="n">
-        <v>6.700000286102295</v>
+        <v>9.600000381469727</v>
       </c>
       <c r="Q44" s="2" t="n">
-        <v>21.450302124023438</v>
+        <v>24.30059814453125</v>
       </c>
       <c r="R44" s="2" t="n">
-        <v>18.700000762939453</v>
+        <v>22.77440643310547</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 11:00:00</t>
+          <t>2022-07-10 16:00:00</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>0.17653444409370422</v>
+        <v>0.17913076281547546</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>0.06681125611066818</v>
+        <v>0.06459295004606247</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>2.616333246231079</v>
+        <v>2.7053561210632324</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2.5873687267303467</v>
+        <v>2.865957021713257</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>2.706009864807129</v>
+        <v>2.6675989627838135</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>2.6714208126068115</v>
+        <v>2.7504892349243164</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0.0</v>
@@ -2709,56 +2709,56 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>49.886085510253906</v>
+        <v>45.40504455566406</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>-35.701778411865234</v>
+        <v>-57.00608825683594</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>1022.2955322265625</v>
+        <v>1013.1826782226562</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>9.40000057220459</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N45" s="2" t="n">
-        <v>9.5</v>
+        <v>9.699999809265137</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>9.0</v>
+        <v>9.90000057220459</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>23.92006492614746</v>
+        <v>23.500402450561523</v>
       </c>
       <c r="R45" s="2" t="n">
-        <v>19.106727600097656</v>
+        <v>22.039134979248047</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 13:00:00</t>
+          <t>2022-07-10 17:00:00</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
-        <v>0.17748364806175232</v>
+        <v>0.1777116358280182</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>0.06691443175077438</v>
+        <v>0.06464453786611557</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>2.6661882400512695</v>
+        <v>2.0476279258728027</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>2.559832811355591</v>
+        <v>2.15447998046875</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>2.760535717010498</v>
+        <v>2.072733163833618</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>2.699136257171631</v>
+        <v>2.125948190689087</v>
       </c>
       <c r="H46" s="2" t="n">
         <v>0.0</v>
@@ -2767,56 +2767,56 @@
         <v>0.0</v>
       </c>
       <c r="J46" s="2" t="n">
-        <v>50.017398834228516</v>
+        <v>45.51869201660156</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>-34.55003356933594</v>
+        <v>-56.55933380126953</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>1023.0443115234375</v>
+        <v>1013.1000366210938</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>9.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="N46" s="2" t="n">
-        <v>9.5</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="O46" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.5</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.5</v>
       </c>
       <c r="Q46" s="2" t="n">
-        <v>23.175207138061523</v>
+        <v>20.9329776763916</v>
       </c>
       <c r="R46" s="2" t="n">
-        <v>19.435405731201172</v>
+        <v>21.808069229125977</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 15:00:00</t>
+          <t>2022-07-10 18:00:00</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
-        <v>0.17895101010799408</v>
+        <v>0.17692701518535614</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>0.06701761484146118</v>
+        <v>0.06469612568616867</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>2.6142258644104004</v>
+        <v>2.2432878017425537</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2.496055841445923</v>
+        <v>2.30892276763916</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>2.721036434173584</v>
+        <v>2.2569427490234375</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>2.676237106323242</v>
+        <v>2.323105573654175</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0.0</v>
@@ -2825,56 +2825,56 @@
         <v>0.0</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>50.14009475708008</v>
+        <v>45.62374496459961</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>-33.36305618286133</v>
+        <v>-56.12627029418945</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>1023.7931518554688</v>
+        <v>1013.0174560546875</v>
       </c>
       <c r="M47" s="2" t="n">
-        <v>9.5</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N47" s="2" t="n">
-        <v>9.5</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O47" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="P47" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="Q47" s="2" t="n">
-        <v>22.174680709838867</v>
+        <v>21.599899291992188</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>20.018129348754883</v>
+        <v>21.45159149169922</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 17:00:00</t>
+          <t>2022-07-10 19:00:00</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
-        <v>0.2267114222049713</v>
+        <v>0.19109506905078888</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>0.06712079048156738</v>
+        <v>0.06474771350622177</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>2.6352357864379883</v>
+        <v>1.846685528755188</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>2.508221387863159</v>
+        <v>1.8998758792877197</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>2.7406961917877197</v>
+        <v>1.8400142192840576</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>2.6871752738952637</v>
+        <v>1.8747944831848145</v>
       </c>
       <c r="H48" s="2" t="n">
         <v>0.0</v>
@@ -2883,56 +2883,56 @@
         <v>0.0</v>
       </c>
       <c r="J48" s="2" t="n">
-        <v>50.24907302856445</v>
+        <v>45.743709564208984</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>-32.18777084350586</v>
+        <v>-55.64503479003906</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>1024.5419921875</v>
+        <v>1012.9348754882812</v>
       </c>
       <c r="M48" s="2" t="n">
-        <v>9.5</v>
+        <v>5.800000190734863</v>
       </c>
       <c r="N48" s="2" t="n">
-        <v>9.5</v>
+        <v>5.900000095367432</v>
       </c>
       <c r="O48" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>5.400000095367432</v>
       </c>
       <c r="P48" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>5.5</v>
       </c>
       <c r="Q48" s="2" t="n">
-        <v>22.533456802368164</v>
+        <v>20.5</v>
       </c>
       <c r="R48" s="2" t="n">
-        <v>20.253515243530273</v>
+        <v>20.789125442504883</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 19:00:00</t>
+          <t>2022-07-10 20:00:00</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>0.1814526617527008</v>
+        <v>0.21411524713039398</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>0.06722396612167358</v>
+        <v>0.06479930877685547</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>2.62443470954895</v>
+        <v>2.4761734008789062</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2.504807233810425</v>
+        <v>2.586054801940918</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>2.7256646156311035</v>
+        <v>2.4755947589874268</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>2.667280673980713</v>
+        <v>2.543823719024658</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0.0</v>
@@ -2941,56 +2941,56 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>50.34659957885742</v>
+        <v>45.85653305053711</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>-31.001598358154297</v>
+        <v>-55.14885330200195</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>1025.290771484375</v>
+        <v>1012.852294921875</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>9.5</v>
+        <v>9.0</v>
       </c>
       <c r="N49" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.100000381469727</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.300000190734863</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>23.500200271606445</v>
+        <v>22.60040283203125</v>
       </c>
       <c r="R49" s="2" t="n">
-        <v>20.23162841796875</v>
+        <v>19.29717254638672</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 21:00:00</t>
+          <t>2022-07-10 21:00:00</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>0.1770646572113037</v>
+        <v>0.18312238156795502</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>0.06732714176177979</v>
+        <v>0.06485089659690857</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>2.6316752433776855</v>
+        <v>2.552123785018921</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>2.494489908218384</v>
+        <v>2.697669506072998</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>2.7181944847106934</v>
+        <v>2.6550116539001465</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>2.668828010559082</v>
+        <v>2.5893099308013916</v>
       </c>
       <c r="H50" s="2" t="n">
         <v>0.0</v>
@@ -2999,56 +2999,56 @@
         <v>0.0</v>
       </c>
       <c r="J50" s="2" t="n">
-        <v>50.43057632446289</v>
+        <v>45.97108459472656</v>
       </c>
       <c r="K50" s="2" t="n">
-        <v>-29.832225799560547</v>
+        <v>-54.65113830566406</v>
       </c>
       <c r="L50" s="2" t="n">
-        <v>1026.0396728515625</v>
+        <v>1012.7696533203125</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N50" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O50" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q50" s="2" t="n">
-        <v>23.800748825073242</v>
+        <v>22.94962501525879</v>
       </c>
       <c r="R50" s="2" t="n">
-        <v>19.526247024536133</v>
+        <v>18.924470901489258</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>2022-07-12 23:00:00</t>
+          <t>2022-07-10 22:00:00</t>
         </is>
       </c>
       <c r="B51" s="2" t="n">
-        <v>0.17801915109157562</v>
+        <v>0.21814562380313873</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>0.06743031740188599</v>
+        <v>0.06490248441696167</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>2.6008527278900146</v>
+        <v>2.543524742126465</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2.446789503097534</v>
+        <v>2.6894335746765137</v>
       </c>
       <c r="F51" s="2" t="n">
-        <v>2.705082893371582</v>
+        <v>2.6356699466705322</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>2.649294853210449</v>
+        <v>2.6098504066467285</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0.0</v>
@@ -3057,56 +3057,56 @@
         <v>0.0</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>50.50301742553711</v>
+        <v>46.08497619628906</v>
       </c>
       <c r="K51" s="2" t="n">
-        <v>-28.654489517211914</v>
+        <v>-54.14418029785156</v>
       </c>
       <c r="L51" s="2" t="n">
-        <v>1026.7884521484375</v>
+        <v>1012.6870727539062</v>
       </c>
       <c r="M51" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N51" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>22.83395767211914</v>
+        <v>23.500350952148438</v>
       </c>
       <c r="R51" s="2" t="n">
-        <v>18.548542022705078</v>
+        <v>18.432754516601562</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 01:00:00</t>
+          <t>2022-07-10 23:00:00</t>
         </is>
       </c>
       <c r="B52" s="2" t="n">
-        <v>0.1887027472257614</v>
+        <v>0.2483011931180954</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>0.06753349304199219</v>
+        <v>0.06495407223701477</v>
       </c>
       <c r="D52" s="2" t="n">
-        <v>2.580253839492798</v>
+        <v>2.5472121238708496</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>2.4348020553588867</v>
+        <v>2.7215356826782227</v>
       </c>
       <c r="F52" s="2" t="n">
-        <v>2.7120981216430664</v>
+        <v>2.651010751724243</v>
       </c>
       <c r="G52" s="2" t="n">
-        <v>2.6530563831329346</v>
+        <v>2.6258296966552734</v>
       </c>
       <c r="H52" s="2" t="n">
         <v>0.0</v>
@@ -3115,56 +3115,56 @@
         <v>0.0</v>
       </c>
       <c r="J52" s="2" t="n">
-        <v>50.56468200683594</v>
+        <v>46.194068908691406</v>
       </c>
       <c r="K52" s="2" t="n">
-        <v>-27.446924209594727</v>
+        <v>-53.63453674316406</v>
       </c>
       <c r="L52" s="2" t="n">
-        <v>1027.1661376953125</v>
+        <v>1012.6044921875</v>
       </c>
       <c r="M52" s="2" t="n">
-        <v>9.5</v>
+        <v>9.399799346923828</v>
       </c>
       <c r="N52" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O52" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P52" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q52" s="2" t="n">
-        <v>23.000301361083984</v>
+        <v>22.699932098388672</v>
       </c>
       <c r="R52" s="2" t="n">
-        <v>18.897050857543945</v>
+        <v>17.140403747558594</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 03:00:00</t>
+          <t>2022-07-11 00:00:00</t>
         </is>
       </c>
       <c r="B53" s="2" t="n">
-        <v>0.17841576039791107</v>
+        <v>0.2424144148826599</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>0.06763667613267899</v>
+        <v>0.06500566005706787</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>2.5744993686676025</v>
+        <v>2.5267789363861084</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2.4356462955474854</v>
+        <v>2.6848740577697754</v>
       </c>
       <c r="F53" s="2" t="n">
-        <v>2.6972711086273193</v>
+        <v>2.623058557510376</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>2.634949207305908</v>
+        <v>2.586592197418213</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0.0</v>
@@ -3173,56 +3173,56 @@
         <v>0.0</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>50.612972259521484</v>
+        <v>46.306217193603516</v>
       </c>
       <c r="K53" s="2" t="n">
-        <v>-26.254329681396484</v>
+        <v>-53.12504196166992</v>
       </c>
       <c r="L53" s="2" t="n">
-        <v>1027.397705078125</v>
+        <v>1012.5218505859375</v>
       </c>
       <c r="M53" s="2" t="n">
-        <v>9.5</v>
+        <v>9.100000381469727</v>
       </c>
       <c r="N53" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>23.499399185180664</v>
+        <v>23.49959945678711</v>
       </c>
       <c r="R53" s="2" t="n">
-        <v>18.525358200073242</v>
+        <v>16.330162048339844</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 05:00:00</t>
+          <t>2022-07-11 01:00:00</t>
         </is>
       </c>
       <c r="B54" s="2" t="n">
-        <v>0.19929595291614532</v>
+        <v>0.18519094586372375</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>0.06773985177278519</v>
+        <v>0.06505724787712097</v>
       </c>
       <c r="D54" s="2" t="n">
-        <v>2.569330930709839</v>
+        <v>2.5068843364715576</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>2.435560941696167</v>
+        <v>2.6610612869262695</v>
       </c>
       <c r="F54" s="2" t="n">
-        <v>2.7122294902801514</v>
+        <v>2.599736213684082</v>
       </c>
       <c r="G54" s="2" t="n">
-        <v>2.6506545543670654</v>
+        <v>2.5508830547332764</v>
       </c>
       <c r="H54" s="2" t="n">
         <v>0.0</v>
@@ -3231,56 +3231,56 @@
         <v>0.0</v>
       </c>
       <c r="J54" s="2" t="n">
-        <v>50.64917755126953</v>
+        <v>46.45642852783203</v>
       </c>
       <c r="K54" s="2" t="n">
-        <v>-25.062145233154297</v>
+        <v>-52.625064849853516</v>
       </c>
       <c r="L54" s="2" t="n">
-        <v>1027.62939453125</v>
+        <v>1012.4392700195312</v>
       </c>
       <c r="M54" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N54" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O54" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P54" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q54" s="2" t="n">
-        <v>22.150564193725586</v>
+        <v>22.957500457763672</v>
       </c>
       <c r="R54" s="2" t="n">
-        <v>18.84763526916504</v>
+        <v>15.508026123046875</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 07:00:00</t>
+          <t>2022-07-11 02:00:00</t>
         </is>
       </c>
       <c r="B55" s="2" t="n">
-        <v>0.18370936810970306</v>
+        <v>0.17710059881210327</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>0.06784302741289139</v>
+        <v>0.06510883569717407</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>2.5890495777130127</v>
+        <v>2.493462324142456</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2.4538846015930176</v>
+        <v>2.646348237991333</v>
       </c>
       <c r="F55" s="2" t="n">
-        <v>2.7342748641967773</v>
+        <v>2.587425470352173</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>2.666578531265259</v>
+        <v>2.542062759399414</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0.0</v>
@@ -3289,56 +3289,56 @@
         <v>0.0</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>50.67337417602539</v>
+        <v>46.596412658691406</v>
       </c>
       <c r="K55" s="2" t="n">
-        <v>-23.851058959960938</v>
+        <v>-52.12016677856445</v>
       </c>
       <c r="L55" s="2" t="n">
-        <v>1027.8609619140625</v>
+        <v>1012.356689453125</v>
       </c>
       <c r="M55" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N55" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O55" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P55" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q55" s="2" t="n">
-        <v>22.966978073120117</v>
+        <v>22.901203155517578</v>
       </c>
       <c r="R55" s="2" t="n">
-        <v>19.177371978759766</v>
+        <v>15.13713550567627</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 09:00:00</t>
+          <t>2022-07-11 03:00:00</t>
         </is>
       </c>
       <c r="B56" s="2" t="n">
-        <v>0.2276453822851181</v>
+        <v>0.1773708164691925</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>0.06794620305299759</v>
+        <v>0.06516042351722717</v>
       </c>
       <c r="D56" s="2" t="n">
-        <v>2.6099326610565186</v>
+        <v>2.506477117538452</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>2.4675686359405518</v>
+        <v>2.666116237640381</v>
       </c>
       <c r="F56" s="2" t="n">
-        <v>2.7592062950134277</v>
+        <v>2.595228672027588</v>
       </c>
       <c r="G56" s="2" t="n">
-        <v>2.738147735595703</v>
+        <v>2.533538818359375</v>
       </c>
       <c r="H56" s="2" t="n">
         <v>0.0</v>
@@ -3347,56 +3347,56 @@
         <v>0.0</v>
       </c>
       <c r="J56" s="2" t="n">
-        <v>50.685035705566406</v>
+        <v>46.734310150146484</v>
       </c>
       <c r="K56" s="2" t="n">
-        <v>-22.667009353637695</v>
+        <v>-51.62191390991211</v>
       </c>
       <c r="L56" s="2" t="n">
-        <v>1028.092529296875</v>
+        <v>1012.2741088867188</v>
       </c>
       <c r="M56" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N56" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>23.496780395507812</v>
+        <v>22.301010131835938</v>
       </c>
       <c r="R56" s="2" t="n">
-        <v>19.887941360473633</v>
+        <v>16.09579086303711</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 11:00:00</t>
+          <t>2022-07-11 04:00:00</t>
         </is>
       </c>
       <c r="B57" s="2" t="n">
-        <v>0.23049016296863556</v>
+        <v>0.17793014645576477</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>0.06804937869310379</v>
+        <v>0.06521201133728027</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>2.626307964324951</v>
+        <v>2.5009498596191406</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2.47225022315979</v>
+        <v>2.6809263229370117</v>
       </c>
       <c r="F57" s="2" t="n">
-        <v>2.746350049972534</v>
+        <v>2.6092092990875244</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>2.71389102935791</v>
+        <v>2.543739080429077</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0.0</v>
@@ -3405,56 +3405,56 @@
         <v>0.0</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>50.68439865112305</v>
+        <v>46.88377380371094</v>
       </c>
       <c r="K57" s="2" t="n">
-        <v>-21.468957901000977</v>
+        <v>-51.129703521728516</v>
       </c>
       <c r="L57" s="2" t="n">
-        <v>1028.3240966796875</v>
+        <v>1012.1914672851562</v>
       </c>
       <c r="M57" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="N57" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>23.099924087524414</v>
+        <v>23.0501766204834</v>
       </c>
       <c r="R57" s="2" t="n">
-        <v>20.126911163330078</v>
+        <v>15.90074634552002</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 13:00:00</t>
+          <t>2022-07-11 05:00:00</t>
         </is>
       </c>
       <c r="B58" s="2" t="n">
-        <v>0.17806997895240784</v>
+        <v>0.17835049331188202</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>0.06815256178379059</v>
+        <v>0.06526359915733337</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>2.618659734725952</v>
+        <v>2.5090107917785645</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2.4671921730041504</v>
+        <v>2.6845335960388184</v>
       </c>
       <c r="F58" s="2" t="n">
-        <v>2.755133628845215</v>
+        <v>2.5941085815429688</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>2.7044272422790527</v>
+        <v>2.5385067462921143</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0.0</v>
@@ -3463,56 +3463,56 @@
         <v>0.0</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>50.67161560058594</v>
+        <v>47.01172637939453</v>
       </c>
       <c r="K58" s="2" t="n">
-        <v>-20.282567977905273</v>
+        <v>-50.622215270996094</v>
       </c>
       <c r="L58" s="2" t="n">
-        <v>1028.5556640625</v>
+        <v>1012.10888671875</v>
       </c>
       <c r="M58" s="2" t="n">
-        <v>9.5</v>
+        <v>9.199999809265137</v>
       </c>
       <c r="N58" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>23.25994300842285</v>
+        <v>23.133333206176758</v>
       </c>
       <c r="R58" s="2" t="n">
-        <v>20.030113220214844</v>
+        <v>15.694685935974121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 15:00:00</t>
+          <t>2022-07-11 06:00:00</t>
         </is>
       </c>
       <c r="B59" s="2" t="n">
-        <v>0.19350893795490265</v>
+        <v>0.20785613358020782</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>0.06825573742389679</v>
+        <v>0.06531518697738647</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>2.5978596210479736</v>
+        <v>2.525202989578247</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2.501039743423462</v>
+        <v>2.719212532043457</v>
       </c>
       <c r="F59" s="2" t="n">
-        <v>2.7207818031311035</v>
+        <v>2.6068882942199707</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>2.6657485961914062</v>
+        <v>2.5580215454101562</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0.0</v>
@@ -3521,56 +3521,56 @@
         <v>0.0</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>50.646053314208984</v>
+        <v>47.130313873291016</v>
       </c>
       <c r="K59" s="2" t="n">
-        <v>-19.12287712097168</v>
+        <v>-50.115211486816406</v>
       </c>
       <c r="L59" s="2" t="n">
-        <v>1028.7872314453125</v>
+        <v>1012.0263061523438</v>
       </c>
       <c r="M59" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N59" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>23.367023468017578</v>
+        <v>23.06610870361328</v>
       </c>
       <c r="R59" s="2" t="n">
-        <v>20.148225784301758</v>
+        <v>15.47685718536377</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 17:00:00</t>
+          <t>2022-07-11 07:00:00</t>
         </is>
       </c>
       <c r="B60" s="2" t="n">
-        <v>0.18156567215919495</v>
+        <v>0.1796487420797348</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>0.06835891306400299</v>
+        <v>0.06536678224802017</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>2.5940303802490234</v>
+        <v>2.5131869316101074</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2.523231029510498</v>
+        <v>2.7178421020507812</v>
       </c>
       <c r="F60" s="2" t="n">
-        <v>2.7371768951416016</v>
+        <v>2.5952494144439697</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>2.6817362308502197</v>
+        <v>2.554119348526001</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0.0</v>
@@ -3579,56 +3579,56 @@
         <v>0.0</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>50.61930465698242</v>
+        <v>47.27305603027344</v>
       </c>
       <c r="K60" s="2" t="n">
-        <v>-17.917604446411133</v>
+        <v>-49.63961410522461</v>
       </c>
       <c r="L60" s="2" t="n">
-        <v>1029.018798828125</v>
+        <v>1012.2415161132812</v>
       </c>
       <c r="M60" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N60" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O60" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P60" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q60" s="2" t="n">
-        <v>22.899999618530273</v>
+        <v>23.000402450561523</v>
       </c>
       <c r="R60" s="2" t="n">
-        <v>20.312971115112305</v>
+        <v>15.171882629394531</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 19:00:00</t>
+          <t>2022-07-11 08:00:00</t>
         </is>
       </c>
       <c r="B61" s="2" t="n">
-        <v>0.2315605878829956</v>
+        <v>0.17768466472625732</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>0.06846208870410919</v>
+        <v>0.06541837006807327</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>2.5965347290039062</v>
+        <v>2.5164899826049805</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2.5166521072387695</v>
+        <v>2.7328481674194336</v>
       </c>
       <c r="F61" s="2" t="n">
-        <v>2.7315256595611572</v>
+        <v>2.615482807159424</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>2.6781437397003174</v>
+        <v>2.5553810596466064</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0.0</v>
@@ -3637,56 +3637,56 @@
         <v>0.0</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>50.559181213378906</v>
+        <v>47.40430450439453</v>
       </c>
       <c r="K61" s="2" t="n">
-        <v>-16.68703269958496</v>
+        <v>-49.13047790527344</v>
       </c>
       <c r="L61" s="2" t="n">
-        <v>1029.25048828125</v>
+        <v>1012.5957641601562</v>
       </c>
       <c r="M61" s="2" t="n">
-        <v>9.5</v>
+        <v>9.40000057220459</v>
       </c>
       <c r="N61" s="2" t="n">
-        <v>9.5</v>
+        <v>9.300000190734863</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>8.600000381469727</v>
       </c>
       <c r="P61" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>8.699999809265137</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>22.665809631347656</v>
+        <v>22.801198959350586</v>
       </c>
       <c r="R61" s="2" t="n">
-        <v>19.407608032226562</v>
+        <v>14.867352485656738</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 21:00:00</t>
+          <t>2022-07-11 09:00:00</t>
         </is>
       </c>
       <c r="B62" s="2" t="n">
-        <v>0.20163704454898834</v>
+        <v>0.39554986357688904</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>0.0685652643442154</v>
+        <v>0.06546995788812637</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>2.5894529819488525</v>
+        <v>2.5397932529449463</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2.508594036102295</v>
+        <v>0.0</v>
       </c>
       <c r="F62" s="2" t="n">
-        <v>2.716923952102661</v>
+        <v>2.672039031982422</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>2.6693849563598633</v>
+        <v>2.6319966316223145</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0.0</v>
@@ -3695,56 +3695,56 @@
         <v>0.0</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>50.49658203125</v>
+        <v>47.52488708496094</v>
       </c>
       <c r="K62" s="2" t="n">
-        <v>-15.487504005432129</v>
+        <v>-48.65187072753906</v>
       </c>
       <c r="L62" s="2" t="n">
-        <v>1029.4820556640625</v>
+        <v>1012.9500732421875</v>
       </c>
       <c r="M62" s="2" t="n">
-        <v>9.5</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="N62" s="2" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="O62" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.0</v>
       </c>
       <c r="P62" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.200000286102295</v>
       </c>
       <c r="Q62" s="2" t="n">
-        <v>21.899999618530273</v>
+        <v>20.966711044311523</v>
       </c>
       <c r="R62" s="2" t="n">
-        <v>19.398685455322266</v>
+        <v>14.747750282287598</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>2022-07-13 23:00:00</t>
+          <t>2022-07-11 10:00:00</t>
         </is>
       </c>
       <c r="B63" s="2" t="n">
-        <v>0.17864000797271729</v>
+        <v>0.48690614104270935</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>0.0686684399843216</v>
+        <v>0.06552154570817947</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>2.5522801876068115</v>
+        <v>2.594247341156006</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2.4935896396636963</v>
+        <v>0.0</v>
       </c>
       <c r="F63" s="2" t="n">
-        <v>2.689605951309204</v>
+        <v>2.747718572616577</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>2.640326738357544</v>
+        <v>2.6857857704162598</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0.0</v>
@@ -3753,56 +3753,56 @@
         <v>0.0</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>50.42164611816406</v>
+        <v>47.64161682128906</v>
       </c>
       <c r="K63" s="2" t="n">
-        <v>-14.288278579711914</v>
+        <v>-48.17909240722656</v>
       </c>
       <c r="L63" s="2" t="n">
-        <v>1028.89453125</v>
+        <v>1013.3043212890625</v>
       </c>
       <c r="M63" s="2" t="n">
-        <v>9.5</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="N63" s="2" t="n">
-        <v>9.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.5</v>
       </c>
       <c r="P63" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>22.828554153442383</v>
+        <v>20.400598526000977</v>
       </c>
       <c r="R63" s="2" t="n">
-        <v>19.321664810180664</v>
+        <v>17.463518142700195</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 01:00:00</t>
+          <t>2022-07-11 11:00:00</t>
         </is>
       </c>
       <c r="B64" s="2" t="n">
-        <v>0.17813892662525177</v>
+        <v>0.486073762178421</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>0.06877162307500839</v>
+        <v>0.06557313352823257</v>
       </c>
       <c r="D64" s="2" t="n">
-        <v>2.560084581375122</v>
+        <v>2.6279799938201904</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>2.5179202556610107</v>
+        <v>0.0</v>
       </c>
       <c r="F64" s="2" t="n">
-        <v>2.682560682296753</v>
+        <v>2.769975185394287</v>
       </c>
       <c r="G64" s="2" t="n">
-        <v>2.640252113342285</v>
+        <v>2.689391613006592</v>
       </c>
       <c r="H64" s="2" t="n">
         <v>0.0</v>
@@ -3811,56 +3811,56 @@
         <v>0.0</v>
       </c>
       <c r="J64" s="2" t="n">
-        <v>50.33462905883789</v>
+        <v>47.755470275878906</v>
       </c>
       <c r="K64" s="2" t="n">
-        <v>-13.096851348876953</v>
+        <v>-47.70845413208008</v>
       </c>
       <c r="L64" s="2" t="n">
-        <v>1028.238037109375</v>
+        <v>1013.6586303710938</v>
       </c>
       <c r="M64" s="2" t="n">
-        <v>9.5</v>
+        <v>7.0</v>
       </c>
       <c r="N64" s="2" t="n">
-        <v>9.5</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="O64" s="2" t="n">
-        <v>8.800000190734863</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="P64" s="2" t="n">
-        <v>9.100000381469727</v>
+        <v>6.400000095367432</v>
       </c>
       <c r="Q64" s="2" t="n">
-        <v>22.46588706970215</v>
+        <v>20.699800491333008</v>
       </c>
       <c r="R64" s="2" t="n">
-        <v>18.677101135253906</v>
+        <v>17.234210968017578</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 03:00:00</t>
+          <t>2022-07-11 12:00:00</t>
         </is>
       </c>
       <c r="B65" s="2" t="n">
-        <v>0.17628268897533417</v>
+        <v>0.5122113823890686</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>0.0688747987151146</v>
+        <v>0.06562472134828568</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1.6312735080718994</v>
+        <v>2.6988916397094727</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>1.6102864742279053</v>
+        <v>0.0</v>
       </c>
       <c r="F65" s="2" t="n">
-        <v>1.7662246227264404</v>
+        <v>2.8578555583953857</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1.6850390434265137</v>
+        <v>2.8204214572906494</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0.0</v>
@@ -3869,56 +3869,56 @@
         <v>0.0</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>50.23653793334961</v>
+        <v>47.888240814208984</v>
       </c>
       <c r="K65" s="2" t="n">
-        <v>-11.923712730407715</v>
+        <v>-47.24462890625</v>
       </c>
       <c r="L65" s="2" t="n">
-        <v>1027.58154296875</v>
+        <v>1014.0128784179688</v>
       </c>
       <c r="M65" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N65" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O65" s="2" t="n">
-        <v>5.0</v>
+        <v>6.5</v>
       </c>
       <c r="P65" s="2" t="n">
-        <v>5.099999904632568</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="Q65" s="2" t="n">
-        <v>19.300334930419922</v>
+        <v>21.566844940185547</v>
       </c>
       <c r="R65" s="2" t="n">
-        <v>18.441740036010742</v>
+        <v>17.727933883666992</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 05:00:00</t>
+          <t>2022-07-11 13:00:00</t>
         </is>
       </c>
       <c r="B66" s="2" t="n">
-        <v>0.17874151468276978</v>
+        <v>0.5460363030433655</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>0.0689779743552208</v>
+        <v>0.06567630916833878</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>0.0</v>
+        <v>2.748584270477295</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2.3411898612976074</v>
+        <v>0.0</v>
       </c>
       <c r="F66" s="2" t="n">
-        <v>2.4780497550964355</v>
+        <v>2.8748886585235596</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>2.4571449756622314</v>
+        <v>2.809068441390991</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0.0</v>
@@ -3927,56 +3927,56 @@
         <v>0.0</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>50.142398834228516</v>
+        <v>47.990657806396484</v>
       </c>
       <c r="K66" s="2" t="n">
-        <v>-10.914265632629395</v>
+        <v>-46.752418518066406</v>
       </c>
       <c r="L66" s="2" t="n">
-        <v>1027.0455322265625</v>
+        <v>1014.3671875</v>
       </c>
       <c r="M66" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N66" s="2" t="n">
-        <v>5.900000095367432</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>5.599999904632568</v>
+        <v>6.800000190734863</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>5.800000190734863</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>19.800201416015625</v>
+        <v>20.499401092529297</v>
       </c>
       <c r="R66" s="2" t="n">
-        <v>18.58901596069336</v>
+        <v>15.51713752746582</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 07:00:00</t>
+          <t>2022-07-11 14:00:00</t>
         </is>
       </c>
       <c r="B67" s="2" t="n">
-        <v>0.17600643634796143</v>
+        <v>0.42694389820098877</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>0.069081149995327</v>
+        <v>0.06572789698839188</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7199862003326416</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2.5663845539093018</v>
+        <v>0.0</v>
       </c>
       <c r="F67" s="2" t="n">
-        <v>2.7045912742614746</v>
+        <v>2.85298228263855</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>2.7100532054901123</v>
+        <v>2.7895586490631104</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0.0</v>
@@ -3985,56 +3985,56 @@
         <v>0.0</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>50.03758239746094</v>
+        <v>48.089012145996094</v>
       </c>
       <c r="K67" s="2" t="n">
-        <v>-9.890209197998047</v>
+        <v>-46.27249526977539</v>
       </c>
       <c r="L67" s="2" t="n">
-        <v>1026.8414306640625</v>
+        <v>1014.721435546875</v>
       </c>
       <c r="M67" s="2" t="n">
-        <v>6.300000190734863</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="N67" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>7.300000190734863</v>
       </c>
       <c r="O67" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="P67" s="2" t="n">
-        <v>6.200000286102295</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q67" s="2" t="n">
-        <v>20.471603393554688</v>
+        <v>21.29939842224121</v>
       </c>
       <c r="R67" s="2" t="n">
-        <v>18.899999618530273</v>
+        <v>16.467790603637695</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 09:00:00</t>
+          <t>2022-07-11 15:00:00</t>
         </is>
       </c>
       <c r="B68" s="2" t="n">
-        <v>0.2292480617761612</v>
+        <v>0.39546138048171997</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>0.0691843256354332</v>
+        <v>0.06577948480844498</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7319588661193848</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>2.5713326930999756</v>
+        <v>0.0</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>2.8448386192321777</v>
+        <v>2.8532674312591553</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>2.793445348739624</v>
+        <v>2.7957561016082764</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0.0</v>
@@ -4043,56 +4043,56 @@
         <v>0.0</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>49.92313003540039</v>
+        <v>48.194156646728516</v>
       </c>
       <c r="K68" s="2" t="n">
-        <v>-8.863600730895996</v>
+        <v>-45.78911209106445</v>
       </c>
       <c r="L68" s="2" t="n">
-        <v>1026.63720703125</v>
+        <v>1015.0757446289062</v>
       </c>
       <c r="M68" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N68" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O68" s="2" t="n">
         <v>6.599999904632568</v>
       </c>
-      <c r="N68" s="2" t="n">
-        <v>6.800000190734863</v>
-      </c>
-      <c r="O68" s="2" t="n">
-        <v>6.400000095367432</v>
-      </c>
       <c r="P68" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q68" s="2" t="n">
-        <v>19.640104293823242</v>
+        <v>21.400400161743164</v>
       </c>
       <c r="R68" s="2" t="n">
-        <v>20.093978881835938</v>
+        <v>16.738876342773438</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 11:00:00</t>
+          <t>2022-07-11 16:00:00</t>
         </is>
       </c>
       <c r="B69" s="2" t="n">
-        <v>0.17696721851825714</v>
+        <v>0.35883453488349915</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>0.06928750872612</v>
+        <v>0.06583107262849808</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7395107746124268</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2.54586124420166</v>
+        <v>0.0</v>
       </c>
       <c r="F69" s="2" t="n">
-        <v>2.8468127250671387</v>
+        <v>2.8613016605377197</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>2.8002946376800537</v>
+        <v>2.7995848655700684</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0.0</v>
@@ -4101,56 +4101,56 @@
         <v>0.0</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>49.77464294433594</v>
+        <v>48.29967498779297</v>
       </c>
       <c r="K69" s="2" t="n">
-        <v>-7.875698089599609</v>
+        <v>-45.299659729003906</v>
       </c>
       <c r="L69" s="2" t="n">
-        <v>1026.43310546875</v>
+        <v>1015.4299926757812</v>
       </c>
       <c r="M69" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N69" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>19.600000381469727</v>
+        <v>20.102397918701172</v>
       </c>
       <c r="R69" s="2" t="n">
-        <v>20.57601547241211</v>
+        <v>15.866942405700684</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 13:00:00</t>
+          <t>2022-07-11 17:00:00</t>
         </is>
       </c>
       <c r="B70" s="2" t="n">
-        <v>0.20282410085201263</v>
+        <v>0.4006040096282959</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>0.0693906843662262</v>
+        <v>0.06588266044855118</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6882383823394775</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>2.5422463417053223</v>
+        <v>0.0</v>
       </c>
       <c r="F70" s="2" t="n">
-        <v>2.8420889377593994</v>
+        <v>2.831589460372925</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>2.7837164402008057</v>
+        <v>2.771681547164917</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0.0</v>
@@ -4159,56 +4159,56 @@
         <v>0.0</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>49.66425704956055</v>
+        <v>48.40315628051758</v>
       </c>
       <c r="K70" s="2" t="n">
-        <v>-6.863493919372559</v>
+        <v>-44.80845260620117</v>
       </c>
       <c r="L70" s="2" t="n">
-        <v>1026.2288818359375</v>
+        <v>1015.7843017578125</v>
       </c>
       <c r="M70" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N70" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O70" s="2" t="n">
         <v>6.599999904632568</v>
       </c>
-      <c r="N70" s="2" t="n">
-        <v>6.800000190734863</v>
-      </c>
-      <c r="O70" s="2" t="n">
-        <v>6.400000095367432</v>
-      </c>
       <c r="P70" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>19.599899291992188</v>
+        <v>22.0</v>
       </c>
       <c r="R70" s="2" t="n">
-        <v>20.8096866607666</v>
+        <v>16.38806915283203</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 15:00:00</t>
+          <t>2022-07-11 18:00:00</t>
         </is>
       </c>
       <c r="B71" s="2" t="n">
-        <v>0.17864756286144257</v>
+        <v>0.4374200701713562</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>0.0694938600063324</v>
+        <v>0.06593425571918488</v>
       </c>
       <c r="D71" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7332987785339355</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>2.5359346866607666</v>
+        <v>0.0</v>
       </c>
       <c r="F71" s="2" t="n">
-        <v>2.837867259979248</v>
+        <v>2.8737335205078125</v>
       </c>
       <c r="G71" s="2" t="n">
-        <v>2.8135690689086914</v>
+        <v>2.834836959838867</v>
       </c>
       <c r="H71" s="2" t="n">
         <v>0.0</v>
@@ -4217,56 +4217,56 @@
         <v>0.0</v>
       </c>
       <c r="J71" s="2" t="n">
-        <v>49.63026428222656</v>
+        <v>48.50292205810547</v>
       </c>
       <c r="K71" s="2" t="n">
-        <v>-5.8215436935424805</v>
+        <v>-44.322998046875</v>
       </c>
       <c r="L71" s="2" t="n">
-        <v>1026.0247802734375</v>
+        <v>1016.1385498046875</v>
       </c>
       <c r="M71" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.0</v>
       </c>
       <c r="N71" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O71" s="2" t="n">
         <v>6.800000190734863</v>
       </c>
-      <c r="O71" s="2" t="n">
-        <v>6.400000095367432</v>
-      </c>
       <c r="P71" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q71" s="2" t="n">
-        <v>20.90020179748535</v>
+        <v>21.799999237060547</v>
       </c>
       <c r="R71" s="2" t="n">
-        <v>21.700000762939453</v>
+        <v>16.167884826660156</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 17:00:00</t>
+          <t>2022-07-11 19:00:00</t>
         </is>
       </c>
       <c r="B72" s="2" t="n">
-        <v>0.19552168250083923</v>
+        <v>0.4187276363372803</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>0.0695970356464386</v>
+        <v>0.06598584353923798</v>
       </c>
       <c r="D72" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7182424068450928</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>2.5662636756896973</v>
+        <v>0.0</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>2.8604605197906494</v>
+        <v>2.871849536895752</v>
       </c>
       <c r="G72" s="2" t="n">
-        <v>2.807880163192749</v>
+        <v>2.8081905841827393</v>
       </c>
       <c r="H72" s="2" t="n">
         <v>0.0</v>
@@ -4275,56 +4275,56 @@
         <v>0.0</v>
       </c>
       <c r="J72" s="2" t="n">
-        <v>49.72101974487305</v>
+        <v>48.60380935668945</v>
       </c>
       <c r="K72" s="2" t="n">
-        <v>-4.739039421081543</v>
+        <v>-43.819766998291016</v>
       </c>
       <c r="L72" s="2" t="n">
-        <v>1025.2200927734375</v>
+        <v>1016.4928588867188</v>
       </c>
       <c r="M72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N72" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O72" s="2" t="n">
         <v>6.800000190734863</v>
       </c>
-      <c r="O72" s="2" t="n">
-        <v>6.400000095367432</v>
-      </c>
       <c r="P72" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>20.200000762939453</v>
+        <v>22.2000675201416</v>
       </c>
       <c r="R72" s="2" t="n">
-        <v>21.808135986328125</v>
+        <v>15.68770980834961</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 19:00:00</t>
+          <t>2022-07-11 20:00:00</t>
         </is>
       </c>
       <c r="B73" s="2" t="n">
-        <v>0.241347074508667</v>
+        <v>0.5381985306739807</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>0.0697002112865448</v>
+        <v>0.06603743135929108</v>
       </c>
       <c r="D73" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7347686290740967</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>2.5568459033966064</v>
+        <v>0.0</v>
       </c>
       <c r="F73" s="2" t="n">
-        <v>2.858367919921875</v>
+        <v>2.893068552017212</v>
       </c>
       <c r="G73" s="2" t="n">
-        <v>2.8306803703308105</v>
+        <v>2.8574838638305664</v>
       </c>
       <c r="H73" s="2" t="n">
         <v>0.0</v>
@@ -4333,56 +4333,56 @@
         <v>0.0</v>
       </c>
       <c r="J73" s="2" t="n">
-        <v>49.990234375</v>
+        <v>48.70304489135742</v>
       </c>
       <c r="K73" s="2" t="n">
-        <v>-3.7122137546539307</v>
+        <v>-43.31314468383789</v>
       </c>
       <c r="L73" s="2" t="n">
-        <v>1024.3326416015625</v>
+        <v>1016.8471069335938</v>
       </c>
       <c r="M73" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N73" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O73" s="2" t="n">
         <v>6.599999904632568</v>
       </c>
-      <c r="N73" s="2" t="n">
-        <v>6.800000190734863</v>
-      </c>
-      <c r="O73" s="2" t="n">
-        <v>6.400000095367432</v>
-      </c>
       <c r="P73" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>19.59959602355957</v>
+        <v>20.679901123046875</v>
       </c>
       <c r="R73" s="2" t="n">
-        <v>22.210264205932617</v>
+        <v>15.202430725097656</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 21:00:00</t>
+          <t>2022-07-11 21:00:00</t>
         </is>
       </c>
       <c r="B74" s="2" t="n">
-        <v>0.25327828526496887</v>
+        <v>0.4311141073703766</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>0.0698033943772316</v>
+        <v>0.06608901917934418</v>
       </c>
       <c r="D74" s="2" t="n">
-        <v>0.0</v>
+        <v>2.747591972351074</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>2.5284781455993652</v>
+        <v>0.0</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>2.8169190883636475</v>
+        <v>2.893712282180786</v>
       </c>
       <c r="G74" s="2" t="n">
-        <v>2.780064582824707</v>
+        <v>2.8343350887298584</v>
       </c>
       <c r="H74" s="2" t="n">
         <v>0.0</v>
@@ -4391,56 +4391,56 @@
         <v>0.0</v>
       </c>
       <c r="J74" s="2" t="n">
-        <v>50.24809646606445</v>
+        <v>48.798316955566406</v>
       </c>
       <c r="K74" s="2" t="n">
-        <v>-2.638733386993408</v>
+        <v>-42.81171798706055</v>
       </c>
       <c r="L74" s="2" t="n">
-        <v>1024.11181640625</v>
+        <v>1017.201416015625</v>
       </c>
       <c r="M74" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>7.099999904632568</v>
       </c>
       <c r="N74" s="2" t="n">
-        <v>6.800000190734863</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>6.400000095367432</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>6.599999904632568</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>20.216625213623047</v>
+        <v>21.200525283813477</v>
       </c>
       <c r="R74" s="2" t="n">
-        <v>20.600000381469727</v>
+        <v>16.024538040161133</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>2022-07-14 23:00:00</t>
+          <t>2022-07-11 22:00:00</t>
         </is>
       </c>
       <c r="B75" s="2" t="n">
-        <v>0.17736004292964935</v>
+        <v>0.5077325105667114</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>0.0699065700173378</v>
+        <v>0.06614060699939728</v>
       </c>
       <c r="D75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7153244018554688</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>1.6308640241622925</v>
+        <v>0.0</v>
       </c>
       <c r="F75" s="2" t="n">
-        <v>1.737355351448059</v>
+        <v>2.855640172958374</v>
       </c>
       <c r="G75" s="2" t="n">
-        <v>0.0</v>
+        <v>2.799548864364624</v>
       </c>
       <c r="H75" s="2" t="n">
         <v>0.0</v>
@@ -4449,56 +4449,56 @@
         <v>0.0</v>
       </c>
       <c r="J75" s="2" t="n">
-        <v>50.41270446777344</v>
+        <v>48.88895034790039</v>
       </c>
       <c r="K75" s="2" t="n">
-        <v>-1.6381715536117554</v>
+        <v>-42.32242202758789</v>
       </c>
       <c r="L75" s="2" t="n">
-        <v>1024.290771484375</v>
+        <v>1017.5556640625</v>
       </c>
       <c r="M75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>7.0</v>
       </c>
       <c r="N75" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>1.3000000715255737</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>11.999942779541016</v>
+        <v>21.933198928833008</v>
       </c>
       <c r="R75" s="2" t="n">
-        <v>21.600000381469727</v>
+        <v>16.311006546020508</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>2022-07-15 01:00:00</t>
+          <t>2022-07-11 23:00:00</t>
         </is>
       </c>
       <c r="B76" s="2" t="n">
-        <v>0.18088427186012268</v>
+        <v>0.4662301242351532</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>0.070009745657444</v>
+        <v>0.06619219481945038</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7222578525543213</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>1.9848541021347046</v>
+        <v>0.0</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>2.0743796825408936</v>
+        <v>2.854889154434204</v>
       </c>
       <c r="G76" s="2" t="n">
-        <v>0.0</v>
+        <v>2.8150627613067627</v>
       </c>
       <c r="H76" s="2" t="n">
         <v>0.0</v>
@@ -4507,146 +4507,4554 @@
         <v>0.0</v>
       </c>
       <c r="J76" s="2" t="n">
-        <v>50.50784683227539</v>
+        <v>48.97835159301758</v>
       </c>
       <c r="K76" s="2" t="n">
-        <v>-1.0606266260147095</v>
+        <v>-41.82646560668945</v>
       </c>
       <c r="L76" s="2" t="n">
-        <v>1024.4696044921875</v>
+        <v>1017.9099731445312</v>
       </c>
       <c r="M76" s="2" t="n">
-        <v>2.299999952316284</v>
+        <v>7.0</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>2.4000000953674316</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>2.299999952316284</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>2.299999952316284</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q76" s="2" t="n">
-        <v>14.399198532104492</v>
+        <v>21.399999618530273</v>
       </c>
       <c r="R76" s="2" t="n">
-        <v>20.875417709350586</v>
+        <v>16.4847354888916</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>2022-07-15 03:00:00</t>
+          <t>2022-07-12 00:00:00</t>
         </is>
       </c>
       <c r="B77" s="2" t="n">
-        <v>0.0633181780576706</v>
+        <v>0.45375773310661316</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>0.0701129212975502</v>
+        <v>0.06624378263950348</v>
       </c>
       <c r="D77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.6992101669311523</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>1.0442278385162354</v>
+        <v>0.0</v>
       </c>
       <c r="F77" s="2" t="n">
-        <v>1.0645194053649902</v>
+        <v>2.841846227645874</v>
       </c>
       <c r="G77" s="2" t="n">
-        <v>0.0</v>
+        <v>2.7832400798797607</v>
       </c>
       <c r="H77" s="2" t="n">
         <v>0.0</v>
       </c>
       <c r="I77" s="2" t="n">
-        <v>2.7183001041412354</v>
+        <v>0.0</v>
       </c>
       <c r="J77" s="2" t="n">
-        <v>50.77562713623047</v>
+        <v>49.06229019165039</v>
       </c>
       <c r="K77" s="2" t="n">
-        <v>-1.307695984840393</v>
+        <v>-41.34744644165039</v>
       </c>
       <c r="L77" s="2" t="n">
-        <v>1024.6485595703125</v>
+        <v>1018.2642211914062</v>
       </c>
       <c r="M77" s="2" t="n">
-        <v>1.5</v>
+        <v>6.900000095367432</v>
       </c>
       <c r="N77" s="2" t="n">
-        <v>1.600000023841858</v>
+        <v>7.400000095367432</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>1.399999976158142</v>
+        <v>6.599999904632568</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>2.0</v>
+        <v>6.700000286102295</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>10.739957809448242</v>
+        <v>21.571945190429688</v>
       </c>
       <c r="R77" s="2" t="n">
-        <v>20.36604881286621</v>
+        <v>16.656110763549805</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
+          <t>2022-07-12 01:00:00</t>
+        </is>
+      </c>
+      <c r="B78" s="2" t="n">
+        <v>0.3723509609699249</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>0.06629537045955658</v>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>2.6588759422302246</v>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F78" s="2" t="n">
+        <v>2.8055577278137207</v>
+      </c>
+      <c r="G78" s="2" t="n">
+        <v>2.740190267562866</v>
+      </c>
+      <c r="H78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I78" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>49.141014099121094</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>-40.887027740478516</v>
+      </c>
+      <c r="L78" s="2" t="n">
+        <v>1018.6185302734375</v>
+      </c>
+      <c r="M78" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="N78" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O78" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P78" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q78" s="2" t="n">
+        <v>20.579486846923828</v>
+      </c>
+      <c r="R78" s="2" t="n">
+        <v>16.82284927368164</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 02:00:00</t>
+        </is>
+      </c>
+      <c r="B79" s="2" t="n">
+        <v>0.3787562847137451</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>0.06634695827960968</v>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>2.7045717239379883</v>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>2.8438637256622314</v>
+      </c>
+      <c r="G79" s="2" t="n">
+        <v>2.774773120880127</v>
+      </c>
+      <c r="H79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>49.22825622558594</v>
+      </c>
+      <c r="K79" s="2" t="n">
+        <v>-40.42081069946289</v>
+      </c>
+      <c r="L79" s="2" t="n">
+        <v>1018.9727783203125</v>
+      </c>
+      <c r="M79" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N79" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O79" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P79" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q79" s="2" t="n">
+        <v>20.75075340270996</v>
+      </c>
+      <c r="R79" s="2" t="n">
+        <v>16.989587783813477</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 03:00:00</t>
+        </is>
+      </c>
+      <c r="B80" s="2" t="n">
+        <v>0.3545994162559509</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>0.06639854609966278</v>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>2.6749484539031982</v>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F80" s="2" t="n">
+        <v>2.825104236602783</v>
+      </c>
+      <c r="G80" s="2" t="n">
+        <v>2.7483906745910645</v>
+      </c>
+      <c r="H80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I80" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J80" s="2" t="n">
+        <v>49.30379104614258</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>-39.923221588134766</v>
+      </c>
+      <c r="L80" s="2" t="n">
+        <v>1019.3270874023438</v>
+      </c>
+      <c r="M80" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N80" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O80" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P80" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q80" s="2" t="n">
+        <v>21.300199508666992</v>
+      </c>
+      <c r="R80" s="2" t="n">
+        <v>17.15632438659668</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 04:00:00</t>
+        </is>
+      </c>
+      <c r="B81" s="2" t="n">
+        <v>0.3983750343322754</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>0.06645013391971588</v>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>2.6741063594818115</v>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F81" s="2" t="n">
+        <v>2.8135125637054443</v>
+      </c>
+      <c r="G81" s="2" t="n">
+        <v>2.742481231689453</v>
+      </c>
+      <c r="H81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I81" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J81" s="2" t="n">
+        <v>49.3782958984375</v>
+      </c>
+      <c r="K81" s="2" t="n">
+        <v>-39.41720199584961</v>
+      </c>
+      <c r="L81" s="2" t="n">
+        <v>1019.6813354492188</v>
+      </c>
+      <c r="M81" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N81" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O81" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P81" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q81" s="2" t="n">
+        <v>21.29991912841797</v>
+      </c>
+      <c r="R81" s="2" t="n">
+        <v>17.234596252441406</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 05:00:00</t>
+        </is>
+      </c>
+      <c r="B82" s="2" t="n">
+        <v>0.340786337852478</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>0.06650172919034958</v>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>2.693922519683838</v>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F82" s="2" t="n">
+        <v>2.8415441513061523</v>
+      </c>
+      <c r="G82" s="2" t="n">
+        <v>2.7720537185668945</v>
+      </c>
+      <c r="H82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I82" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J82" s="2" t="n">
+        <v>49.455078125</v>
+      </c>
+      <c r="K82" s="2" t="n">
+        <v>-38.911781311035156</v>
+      </c>
+      <c r="L82" s="2" t="n">
+        <v>1020.0490112304688</v>
+      </c>
+      <c r="M82" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N82" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O82" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P82" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q82" s="2" t="n">
+        <v>21.30060577392578</v>
+      </c>
+      <c r="R82" s="2" t="n">
+        <v>17.281469345092773</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 06:00:00</t>
+        </is>
+      </c>
+      <c r="B83" s="2" t="n">
+        <v>0.4119056463241577</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>0.06655331701040268</v>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>2.7025227546691895</v>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F83" s="2" t="n">
+        <v>2.845853805541992</v>
+      </c>
+      <c r="G83" s="2" t="n">
+        <v>2.7760238647460938</v>
+      </c>
+      <c r="H83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>49.530372619628906</v>
+      </c>
+      <c r="K83" s="2" t="n">
+        <v>-38.3989372253418</v>
+      </c>
+      <c r="L83" s="2" t="n">
+        <v>1020.4234619140625</v>
+      </c>
+      <c r="M83" s="2" t="n">
+        <v>7.200000286102295</v>
+      </c>
+      <c r="N83" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O83" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P83" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q83" s="2" t="n">
+        <v>20.316726684570312</v>
+      </c>
+      <c r="R83" s="2" t="n">
+        <v>17.250526428222656</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 07:00:00</t>
+        </is>
+      </c>
+      <c r="B84" s="2" t="n">
+        <v>0.41336169838905334</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>0.06660490483045578</v>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>2.6862823963165283</v>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F84" s="2" t="n">
+        <v>2.83866024017334</v>
+      </c>
+      <c r="G84" s="2" t="n">
+        <v>2.7750325202941895</v>
+      </c>
+      <c r="H84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J84" s="2" t="n">
+        <v>49.60309982299805</v>
+      </c>
+      <c r="K84" s="2" t="n">
+        <v>-37.886253356933594</v>
+      </c>
+      <c r="L84" s="2" t="n">
+        <v>1020.7978515625</v>
+      </c>
+      <c r="M84" s="2" t="n">
+        <v>7.099999904632568</v>
+      </c>
+      <c r="N84" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O84" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P84" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q84" s="2" t="n">
+        <v>20.600996017456055</v>
+      </c>
+      <c r="R84" s="2" t="n">
+        <v>16.78873062133789</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="B85" s="2" t="n">
+        <v>0.49748045206069946</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>0.06665649265050888</v>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>2.744978904724121</v>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F85" s="2" t="n">
+        <v>2.887352466583252</v>
+      </c>
+      <c r="G85" s="2" t="n">
+        <v>2.816080093383789</v>
+      </c>
+      <c r="H85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I85" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J85" s="2" t="n">
+        <v>49.67489242553711</v>
+      </c>
+      <c r="K85" s="2" t="n">
+        <v>-37.36375045776367</v>
+      </c>
+      <c r="L85" s="2" t="n">
+        <v>1021.1722412109375</v>
+      </c>
+      <c r="M85" s="2" t="n">
+        <v>7.300000190734863</v>
+      </c>
+      <c r="N85" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O85" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P85" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q85" s="2" t="n">
+        <v>21.289081573486328</v>
+      </c>
+      <c r="R85" s="2" t="n">
+        <v>17.58262062072754</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 09:00:00</t>
+        </is>
+      </c>
+      <c r="B86" s="2" t="n">
+        <v>0.43614715337753296</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>0.06670808047056198</v>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>2.725374460220337</v>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="F86" s="2" t="n">
+        <v>2.8585970401763916</v>
+      </c>
+      <c r="G86" s="2" t="n">
+        <v>2.7882349491119385</v>
+      </c>
+      <c r="H86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J86" s="2" t="n">
+        <v>49.74528884887695</v>
+      </c>
+      <c r="K86" s="2" t="n">
+        <v>-36.832786560058594</v>
+      </c>
+      <c r="L86" s="2" t="n">
+        <v>1021.5466918945312</v>
+      </c>
+      <c r="M86" s="2" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="N86" s="2" t="n">
+        <v>7.400000095367432</v>
+      </c>
+      <c r="O86" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="P86" s="2" t="n">
+        <v>6.700000286102295</v>
+      </c>
+      <c r="Q86" s="2" t="n">
+        <v>21.450302124023438</v>
+      </c>
+      <c r="R86" s="2" t="n">
+        <v>18.700000762939453</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 10:00:00</t>
+        </is>
+      </c>
+      <c r="B87" s="2" t="n">
+        <v>0.19581657648086548</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>0.06675966829061508</v>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>2.5749313831329346</v>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>2.5344161987304688</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>2.718116044998169</v>
+      </c>
+      <c r="G87" s="2" t="n">
+        <v>2.66202712059021</v>
+      </c>
+      <c r="H87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J87" s="2" t="n">
+        <v>49.81603240966797</v>
+      </c>
+      <c r="K87" s="2" t="n">
+        <v>-36.27570343017578</v>
+      </c>
+      <c r="L87" s="2" t="n">
+        <v>1021.9210815429688</v>
+      </c>
+      <c r="M87" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N87" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="O87" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P87" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q87" s="2" t="n">
+        <v>22.63326644897461</v>
+      </c>
+      <c r="R87" s="2" t="n">
+        <v>18.899999618530273</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 11:00:00</t>
+        </is>
+      </c>
+      <c r="B88" s="2" t="n">
+        <v>0.17653444409370422</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>0.06681125611066818</v>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>2.616333246231079</v>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>2.5873687267303467</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>2.706009864807129</v>
+      </c>
+      <c r="G88" s="2" t="n">
+        <v>2.6714208126068115</v>
+      </c>
+      <c r="H88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>49.886085510253906</v>
+      </c>
+      <c r="K88" s="2" t="n">
+        <v>-35.701778411865234</v>
+      </c>
+      <c r="L88" s="2" t="n">
+        <v>1022.2955322265625</v>
+      </c>
+      <c r="M88" s="2" t="n">
+        <v>9.40000057220459</v>
+      </c>
+      <c r="N88" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O88" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P88" s="2" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="Q88" s="2" t="n">
+        <v>23.92006492614746</v>
+      </c>
+      <c r="R88" s="2" t="n">
+        <v>19.106727600097656</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 12:00:00</t>
+        </is>
+      </c>
+      <c r="B89" s="2" t="n">
+        <v>0.1960606873035431</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>0.06686284393072128</v>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>2.6422536373138428</v>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>2.611175298690796</v>
+      </c>
+      <c r="F89" s="2" t="n">
+        <v>2.7440919876098633</v>
+      </c>
+      <c r="G89" s="2" t="n">
+        <v>2.6707260608673096</v>
+      </c>
+      <c r="H89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J89" s="2" t="n">
+        <v>49.95267105102539</v>
+      </c>
+      <c r="K89" s="2" t="n">
+        <v>-35.13234329223633</v>
+      </c>
+      <c r="L89" s="2" t="n">
+        <v>1022.669921875</v>
+      </c>
+      <c r="M89" s="2" t="n">
+        <v>9.800000190734863</v>
+      </c>
+      <c r="N89" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O89" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P89" s="2" t="n">
+        <v>9.300000190734863</v>
+      </c>
+      <c r="Q89" s="2" t="n">
+        <v>23.1997013092041</v>
+      </c>
+      <c r="R89" s="2" t="n">
+        <v>19.48780632019043</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 13:00:00</t>
+        </is>
+      </c>
+      <c r="B90" s="2" t="n">
+        <v>0.17748364806175232</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>0.06691443175077438</v>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>2.6661882400512695</v>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>2.559832811355591</v>
+      </c>
+      <c r="F90" s="2" t="n">
+        <v>2.760535717010498</v>
+      </c>
+      <c r="G90" s="2" t="n">
+        <v>2.699136257171631</v>
+      </c>
+      <c r="H90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I90" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>50.017398834228516</v>
+      </c>
+      <c r="K90" s="2" t="n">
+        <v>-34.55003356933594</v>
+      </c>
+      <c r="L90" s="2" t="n">
+        <v>1023.0443115234375</v>
+      </c>
+      <c r="M90" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N90" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O90" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="P90" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q90" s="2" t="n">
+        <v>23.175207138061523</v>
+      </c>
+      <c r="R90" s="2" t="n">
+        <v>19.435405731201172</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 14:00:00</t>
+        </is>
+      </c>
+      <c r="B91" s="2" t="n">
+        <v>0.17977257072925568</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>0.06696601957082748</v>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>2.6422786712646484</v>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>2.545729398727417</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>2.737470865249634</v>
+      </c>
+      <c r="G91" s="2" t="n">
+        <v>2.679619073867798</v>
+      </c>
+      <c r="H91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I91" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J91" s="2" t="n">
+        <v>50.07996368408203</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>-33.95930099487305</v>
+      </c>
+      <c r="L91" s="2" t="n">
+        <v>1023.4187622070312</v>
+      </c>
+      <c r="M91" s="2" t="n">
+        <v>9.199999809265137</v>
+      </c>
+      <c r="N91" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O91" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P91" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q91" s="2" t="n">
+        <v>22.54988670349121</v>
+      </c>
+      <c r="R91" s="2" t="n">
+        <v>20.444971084594727</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 15:00:00</t>
+        </is>
+      </c>
+      <c r="B92" s="2" t="n">
+        <v>0.17895101010799408</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>0.06701761484146118</v>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>2.6142258644104004</v>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>2.496055841445923</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>2.721036434173584</v>
+      </c>
+      <c r="G92" s="2" t="n">
+        <v>2.676237106323242</v>
+      </c>
+      <c r="H92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>50.14009475708008</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>-33.36305618286133</v>
+      </c>
+      <c r="L92" s="2" t="n">
+        <v>1023.7931518554688</v>
+      </c>
+      <c r="M92" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N92" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O92" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P92" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q92" s="2" t="n">
+        <v>22.174680709838867</v>
+      </c>
+      <c r="R92" s="2" t="n">
+        <v>20.018129348754883</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 16:00:00</t>
+        </is>
+      </c>
+      <c r="B93" s="2" t="n">
+        <v>0.17945462465286255</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>0.06706920266151428</v>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>2.624279737472534</v>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>2.5055696964263916</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>2.726468563079834</v>
+      </c>
+      <c r="G93" s="2" t="n">
+        <v>2.6749000549316406</v>
+      </c>
+      <c r="H93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J93" s="2" t="n">
+        <v>50.19623947143555</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>-32.775386810302734</v>
+      </c>
+      <c r="L93" s="2" t="n">
+        <v>1024.1676025390625</v>
+      </c>
+      <c r="M93" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N93" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O93" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P93" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q93" s="2" t="n">
+        <v>23.233644485473633</v>
+      </c>
+      <c r="R93" s="2" t="n">
+        <v>19.73093032836914</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 17:00:00</t>
+        </is>
+      </c>
+      <c r="B94" s="2" t="n">
+        <v>0.2267114222049713</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>0.06712079048156738</v>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>2.6352357864379883</v>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>2.508221387863159</v>
+      </c>
+      <c r="F94" s="2" t="n">
+        <v>2.7406961917877197</v>
+      </c>
+      <c r="G94" s="2" t="n">
+        <v>2.6871752738952637</v>
+      </c>
+      <c r="H94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>50.24907302856445</v>
+      </c>
+      <c r="K94" s="2" t="n">
+        <v>-32.18777084350586</v>
+      </c>
+      <c r="L94" s="2" t="n">
+        <v>1024.5419921875</v>
+      </c>
+      <c r="M94" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N94" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O94" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P94" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q94" s="2" t="n">
+        <v>22.533456802368164</v>
+      </c>
+      <c r="R94" s="2" t="n">
+        <v>20.253515243530273</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 18:00:00</t>
+        </is>
+      </c>
+      <c r="B95" s="2" t="n">
+        <v>0.1815718561410904</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>0.06717237830162048</v>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>2.6258063316345215</v>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>2.510103702545166</v>
+      </c>
+      <c r="F95" s="2" t="n">
+        <v>2.7368013858795166</v>
+      </c>
+      <c r="G95" s="2" t="n">
+        <v>2.6907575130462646</v>
+      </c>
+      <c r="H95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I95" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J95" s="2" t="n">
+        <v>50.299625396728516</v>
+      </c>
+      <c r="K95" s="2" t="n">
+        <v>-31.592926025390625</v>
+      </c>
+      <c r="L95" s="2" t="n">
+        <v>1024.9163818359375</v>
+      </c>
+      <c r="M95" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N95" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O95" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P95" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q95" s="2" t="n">
+        <v>23.299699783325195</v>
+      </c>
+      <c r="R95" s="2" t="n">
+        <v>20.511131286621094</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 19:00:00</t>
+        </is>
+      </c>
+      <c r="B96" s="2" t="n">
+        <v>0.1814526617527008</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>0.06722396612167358</v>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>2.62443470954895</v>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>2.504807233810425</v>
+      </c>
+      <c r="F96" s="2" t="n">
+        <v>2.7256646156311035</v>
+      </c>
+      <c r="G96" s="2" t="n">
+        <v>2.667280673980713</v>
+      </c>
+      <c r="H96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I96" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J96" s="2" t="n">
+        <v>50.34659957885742</v>
+      </c>
+      <c r="K96" s="2" t="n">
+        <v>-31.001598358154297</v>
+      </c>
+      <c r="L96" s="2" t="n">
+        <v>1025.290771484375</v>
+      </c>
+      <c r="M96" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N96" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O96" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P96" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q96" s="2" t="n">
+        <v>23.500200271606445</v>
+      </c>
+      <c r="R96" s="2" t="n">
+        <v>20.23162841796875</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 20:00:00</t>
+        </is>
+      </c>
+      <c r="B97" s="2" t="n">
+        <v>0.17790858447551727</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>0.06727555394172668</v>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>2.632662534713745</v>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>2.5221786499023438</v>
+      </c>
+      <c r="F97" s="2" t="n">
+        <v>2.736659288406372</v>
+      </c>
+      <c r="G97" s="2" t="n">
+        <v>2.6840479373931885</v>
+      </c>
+      <c r="H97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I97" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J97" s="2" t="n">
+        <v>50.389991760253906</v>
+      </c>
+      <c r="K97" s="2" t="n">
+        <v>-30.418071746826172</v>
+      </c>
+      <c r="L97" s="2" t="n">
+        <v>1025.6651611328125</v>
+      </c>
+      <c r="M97" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N97" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O97" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P97" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q97" s="2" t="n">
+        <v>22.674867630004883</v>
+      </c>
+      <c r="R97" s="2" t="n">
+        <v>19.95212745666504</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 21:00:00</t>
+        </is>
+      </c>
+      <c r="B98" s="2" t="n">
+        <v>0.1770646572113037</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>0.06732714176177979</v>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>2.6316752433776855</v>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>2.494489908218384</v>
+      </c>
+      <c r="F98" s="2" t="n">
+        <v>2.7181944847106934</v>
+      </c>
+      <c r="G98" s="2" t="n">
+        <v>2.668828010559082</v>
+      </c>
+      <c r="H98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I98" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J98" s="2" t="n">
+        <v>50.43057632446289</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>-29.832225799560547</v>
+      </c>
+      <c r="L98" s="2" t="n">
+        <v>1026.0396728515625</v>
+      </c>
+      <c r="M98" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N98" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O98" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P98" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q98" s="2" t="n">
+        <v>23.800748825073242</v>
+      </c>
+      <c r="R98" s="2" t="n">
+        <v>19.526247024536133</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 22:00:00</t>
+        </is>
+      </c>
+      <c r="B99" s="2" t="n">
+        <v>0.20132558047771454</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>0.06737872958183289</v>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>2.6172497272491455</v>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>2.4649243354797363</v>
+      </c>
+      <c r="F99" s="2" t="n">
+        <v>2.7124979496002197</v>
+      </c>
+      <c r="G99" s="2" t="n">
+        <v>2.663931131362915</v>
+      </c>
+      <c r="H99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I99" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J99" s="2" t="n">
+        <v>50.468326568603516</v>
+      </c>
+      <c r="K99" s="2" t="n">
+        <v>-29.244029998779297</v>
+      </c>
+      <c r="L99" s="2" t="n">
+        <v>1026.4140625</v>
+      </c>
+      <c r="M99" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N99" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O99" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P99" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q99" s="2" t="n">
+        <v>22.76664924621582</v>
+      </c>
+      <c r="R99" s="2" t="n">
+        <v>18.9255428314209</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-12 23:00:00</t>
+        </is>
+      </c>
+      <c r="B100" s="2" t="n">
+        <v>0.17801915109157562</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>0.06743031740188599</v>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>2.6008527278900146</v>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>2.446789503097534</v>
+      </c>
+      <c r="F100" s="2" t="n">
+        <v>2.705082893371582</v>
+      </c>
+      <c r="G100" s="2" t="n">
+        <v>2.649294853210449</v>
+      </c>
+      <c r="H100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>50.50301742553711</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>-28.654489517211914</v>
+      </c>
+      <c r="L100" s="2" t="n">
+        <v>1026.7884521484375</v>
+      </c>
+      <c r="M100" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N100" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O100" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P100" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q100" s="2" t="n">
+        <v>22.83395767211914</v>
+      </c>
+      <c r="R100" s="2" t="n">
+        <v>18.548542022705078</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 00:00:00</t>
+        </is>
+      </c>
+      <c r="B101" s="2" t="n">
+        <v>0.17889276146888733</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>0.06748190522193909</v>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>2.581343650817871</v>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>2.4155642986297607</v>
+      </c>
+      <c r="F101" s="2" t="n">
+        <v>2.7035019397735596</v>
+      </c>
+      <c r="G101" s="2" t="n">
+        <v>2.651494264602661</v>
+      </c>
+      <c r="H101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I101" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J101" s="2" t="n">
+        <v>50.53499221801758</v>
+      </c>
+      <c r="K101" s="2" t="n">
+        <v>-28.055110931396484</v>
+      </c>
+      <c r="L101" s="2" t="n">
+        <v>1027.0504150390625</v>
+      </c>
+      <c r="M101" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N101" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O101" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P101" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q101" s="2" t="n">
+        <v>23.05030059814453</v>
+      </c>
+      <c r="R101" s="2" t="n">
+        <v>18.860742568969727</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 01:00:00</t>
+        </is>
+      </c>
+      <c r="B102" s="2" t="n">
+        <v>0.1887027472257614</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>0.06753349304199219</v>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>2.580253839492798</v>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>2.4348020553588867</v>
+      </c>
+      <c r="F102" s="2" t="n">
+        <v>2.7120981216430664</v>
+      </c>
+      <c r="G102" s="2" t="n">
+        <v>2.6530563831329346</v>
+      </c>
+      <c r="H102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I102" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J102" s="2" t="n">
+        <v>50.56468200683594</v>
+      </c>
+      <c r="K102" s="2" t="n">
+        <v>-27.446924209594727</v>
+      </c>
+      <c r="L102" s="2" t="n">
+        <v>1027.1661376953125</v>
+      </c>
+      <c r="M102" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N102" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O102" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P102" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q102" s="2" t="n">
+        <v>23.000301361083984</v>
+      </c>
+      <c r="R102" s="2" t="n">
+        <v>18.897050857543945</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 02:00:00</t>
+        </is>
+      </c>
+      <c r="B103" s="2" t="n">
+        <v>0.19444409012794495</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>0.06758508831262589</v>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>2.586050271987915</v>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>2.4301745891571045</v>
+      </c>
+      <c r="F103" s="2" t="n">
+        <v>2.6889097690582275</v>
+      </c>
+      <c r="G103" s="2" t="n">
+        <v>2.6317975521087646</v>
+      </c>
+      <c r="H103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I103" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J103" s="2" t="n">
+        <v>50.59040451049805</v>
+      </c>
+      <c r="K103" s="2" t="n">
+        <v>-26.847347259521484</v>
+      </c>
+      <c r="L103" s="2" t="n">
+        <v>1027.281982421875</v>
+      </c>
+      <c r="M103" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N103" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O103" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P103" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q103" s="2" t="n">
+        <v>23.30080795288086</v>
+      </c>
+      <c r="R103" s="2" t="n">
+        <v>18.711204528808594</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 03:00:00</t>
+        </is>
+      </c>
+      <c r="B104" s="2" t="n">
+        <v>0.17841576039791107</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>0.06763667613267899</v>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>2.5744993686676025</v>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>2.4356462955474854</v>
+      </c>
+      <c r="F104" s="2" t="n">
+        <v>2.6972711086273193</v>
+      </c>
+      <c r="G104" s="2" t="n">
+        <v>2.634949207305908</v>
+      </c>
+      <c r="H104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I104" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J104" s="2" t="n">
+        <v>50.612972259521484</v>
+      </c>
+      <c r="K104" s="2" t="n">
+        <v>-26.254329681396484</v>
+      </c>
+      <c r="L104" s="2" t="n">
+        <v>1027.397705078125</v>
+      </c>
+      <c r="M104" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N104" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O104" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P104" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q104" s="2" t="n">
+        <v>23.499399185180664</v>
+      </c>
+      <c r="R104" s="2" t="n">
+        <v>18.525358200073242</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 04:00:00</t>
+        </is>
+      </c>
+      <c r="B105" s="2" t="n">
+        <v>0.17840132117271423</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>0.06768826395273209</v>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>2.5663371086120605</v>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>2.424539089202881</v>
+      </c>
+      <c r="F105" s="2" t="n">
+        <v>2.701937675476074</v>
+      </c>
+      <c r="G105" s="2" t="n">
+        <v>2.6519486904144287</v>
+      </c>
+      <c r="H105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I105" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J105" s="2" t="n">
+        <v>50.632347106933594</v>
+      </c>
+      <c r="K105" s="2" t="n">
+        <v>-25.665952682495117</v>
+      </c>
+      <c r="L105" s="2" t="n">
+        <v>1027.5135498046875</v>
+      </c>
+      <c r="M105" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N105" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O105" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P105" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q105" s="2" t="n">
+        <v>23.119951248168945</v>
+      </c>
+      <c r="R105" s="2" t="n">
+        <v>18.671239852905273</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 05:00:00</t>
+        </is>
+      </c>
+      <c r="B106" s="2" t="n">
+        <v>0.19929595291614532</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>0.06773985177278519</v>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>2.569330930709839</v>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>2.435560941696167</v>
+      </c>
+      <c r="F106" s="2" t="n">
+        <v>2.7122294902801514</v>
+      </c>
+      <c r="G106" s="2" t="n">
+        <v>2.6506545543670654</v>
+      </c>
+      <c r="H106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I106" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J106" s="2" t="n">
+        <v>50.64917755126953</v>
+      </c>
+      <c r="K106" s="2" t="n">
+        <v>-25.062145233154297</v>
+      </c>
+      <c r="L106" s="2" t="n">
+        <v>1027.62939453125</v>
+      </c>
+      <c r="M106" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N106" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O106" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P106" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q106" s="2" t="n">
+        <v>22.150564193725586</v>
+      </c>
+      <c r="R106" s="2" t="n">
+        <v>18.84763526916504</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 06:00:00</t>
+        </is>
+      </c>
+      <c r="B107" s="2" t="n">
+        <v>0.17758344113826752</v>
+      </c>
+      <c r="C107" s="2" t="n">
+        <v>0.06779143959283829</v>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>2.58766508102417</v>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>2.4326581954956055</v>
+      </c>
+      <c r="F107" s="2" t="n">
+        <v>2.7193875312805176</v>
+      </c>
+      <c r="G107" s="2" t="n">
+        <v>2.667069435119629</v>
+      </c>
+      <c r="H107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I107" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J107" s="2" t="n">
+        <v>50.663108825683594</v>
+      </c>
+      <c r="K107" s="2" t="n">
+        <v>-24.444917678833008</v>
+      </c>
+      <c r="L107" s="2" t="n">
+        <v>1027.7451171875</v>
+      </c>
+      <c r="M107" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N107" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O107" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P107" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q107" s="2" t="n">
+        <v>22.75025177001953</v>
+      </c>
+      <c r="R107" s="2" t="n">
+        <v>18.983470916748047</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 07:00:00</t>
+        </is>
+      </c>
+      <c r="B108" s="2" t="n">
+        <v>0.18370936810970306</v>
+      </c>
+      <c r="C108" s="2" t="n">
+        <v>0.06784302741289139</v>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>2.5890495777130127</v>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>2.4538846015930176</v>
+      </c>
+      <c r="F108" s="2" t="n">
+        <v>2.7342748641967773</v>
+      </c>
+      <c r="G108" s="2" t="n">
+        <v>2.666578531265259</v>
+      </c>
+      <c r="H108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I108" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J108" s="2" t="n">
+        <v>50.67337417602539</v>
+      </c>
+      <c r="K108" s="2" t="n">
+        <v>-23.851058959960938</v>
+      </c>
+      <c r="L108" s="2" t="n">
+        <v>1027.8609619140625</v>
+      </c>
+      <c r="M108" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N108" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O108" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P108" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q108" s="2" t="n">
+        <v>22.966978073120117</v>
+      </c>
+      <c r="R108" s="2" t="n">
+        <v>19.177371978759766</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="B109" s="2" t="n">
+        <v>0.18538807332515717</v>
+      </c>
+      <c r="C109" s="2" t="n">
+        <v>0.06789461523294449</v>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>2.6107089519500732</v>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>2.467329978942871</v>
+      </c>
+      <c r="F109" s="2" t="n">
+        <v>2.7472517490386963</v>
+      </c>
+      <c r="G109" s="2" t="n">
+        <v>2.674670696258545</v>
+      </c>
+      <c r="H109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I109" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J109" s="2" t="n">
+        <v>50.68064880371094</v>
+      </c>
+      <c r="K109" s="2" t="n">
+        <v>-23.261564254760742</v>
+      </c>
+      <c r="L109" s="2" t="n">
+        <v>1027.9766845703125</v>
+      </c>
+      <c r="M109" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N109" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O109" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P109" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q109" s="2" t="n">
+        <v>22.766376495361328</v>
+      </c>
+      <c r="R109" s="2" t="n">
+        <v>19.37932014465332</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 09:00:00</t>
+        </is>
+      </c>
+      <c r="B110" s="2" t="n">
+        <v>0.2276453822851181</v>
+      </c>
+      <c r="C110" s="2" t="n">
+        <v>0.06794620305299759</v>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>2.6099326610565186</v>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>2.4675686359405518</v>
+      </c>
+      <c r="F110" s="2" t="n">
+        <v>2.7592062950134277</v>
+      </c>
+      <c r="G110" s="2" t="n">
+        <v>2.738147735595703</v>
+      </c>
+      <c r="H110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I110" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J110" s="2" t="n">
+        <v>50.685035705566406</v>
+      </c>
+      <c r="K110" s="2" t="n">
+        <v>-22.667009353637695</v>
+      </c>
+      <c r="L110" s="2" t="n">
+        <v>1028.092529296875</v>
+      </c>
+      <c r="M110" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N110" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O110" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P110" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q110" s="2" t="n">
+        <v>23.496780395507812</v>
+      </c>
+      <c r="R110" s="2" t="n">
+        <v>19.887941360473633</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 10:00:00</t>
+        </is>
+      </c>
+      <c r="B111" s="2" t="n">
+        <v>0.1787082403898239</v>
+      </c>
+      <c r="C111" s="2" t="n">
+        <v>0.06799779087305069</v>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>2.599675416946411</v>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>2.4512341022491455</v>
+      </c>
+      <c r="F111" s="2" t="n">
+        <v>2.7435286045074463</v>
+      </c>
+      <c r="G111" s="2" t="n">
+        <v>2.6944053173065186</v>
+      </c>
+      <c r="H111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I111" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J111" s="2" t="n">
+        <v>50.686222076416016</v>
+      </c>
+      <c r="K111" s="2" t="n">
+        <v>-22.066139221191406</v>
+      </c>
+      <c r="L111" s="2" t="n">
+        <v>1028.208251953125</v>
+      </c>
+      <c r="M111" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N111" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O111" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P111" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q111" s="2" t="n">
+        <v>23.733043670654297</v>
+      </c>
+      <c r="R111" s="2" t="n">
+        <v>19.70535659790039</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 11:00:00</t>
+        </is>
+      </c>
+      <c r="B112" s="2" t="n">
+        <v>0.23049016296863556</v>
+      </c>
+      <c r="C112" s="2" t="n">
+        <v>0.06804937869310379</v>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>2.626307964324951</v>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>2.47225022315979</v>
+      </c>
+      <c r="F112" s="2" t="n">
+        <v>2.746350049972534</v>
+      </c>
+      <c r="G112" s="2" t="n">
+        <v>2.71389102935791</v>
+      </c>
+      <c r="H112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I112" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J112" s="2" t="n">
+        <v>50.68439865112305</v>
+      </c>
+      <c r="K112" s="2" t="n">
+        <v>-21.468957901000977</v>
+      </c>
+      <c r="L112" s="2" t="n">
+        <v>1028.3240966796875</v>
+      </c>
+      <c r="M112" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N112" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O112" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P112" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q112" s="2" t="n">
+        <v>23.099924087524414</v>
+      </c>
+      <c r="R112" s="2" t="n">
+        <v>20.126911163330078</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 12:00:00</t>
+        </is>
+      </c>
+      <c r="B113" s="2" t="n">
+        <v>0.17814676463603973</v>
+      </c>
+      <c r="C113" s="2" t="n">
+        <v>0.06810096651315689</v>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>2.619462013244629</v>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>2.4769201278686523</v>
+      </c>
+      <c r="F113" s="2" t="n">
+        <v>2.7533483505249023</v>
+      </c>
+      <c r="G113" s="2" t="n">
+        <v>2.695070505142212</v>
+      </c>
+      <c r="H113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I113" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J113" s="2" t="n">
+        <v>50.677059173583984</v>
+      </c>
+      <c r="K113" s="2" t="n">
+        <v>-20.873668670654297</v>
+      </c>
+      <c r="L113" s="2" t="n">
+        <v>1028.43994140625</v>
+      </c>
+      <c r="M113" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N113" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O113" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P113" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q113" s="2" t="n">
+        <v>23.39962387084961</v>
+      </c>
+      <c r="R113" s="2" t="n">
+        <v>19.747602462768555</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 13:00:00</t>
+        </is>
+      </c>
+      <c r="B114" s="2" t="n">
+        <v>0.17806997895240784</v>
+      </c>
+      <c r="C114" s="2" t="n">
+        <v>0.06815256178379059</v>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>2.618659734725952</v>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>2.4671921730041504</v>
+      </c>
+      <c r="F114" s="2" t="n">
+        <v>2.755133628845215</v>
+      </c>
+      <c r="G114" s="2" t="n">
+        <v>2.7044272422790527</v>
+      </c>
+      <c r="H114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I114" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J114" s="2" t="n">
+        <v>50.67161560058594</v>
+      </c>
+      <c r="K114" s="2" t="n">
+        <v>-20.282567977905273</v>
+      </c>
+      <c r="L114" s="2" t="n">
+        <v>1028.5556640625</v>
+      </c>
+      <c r="M114" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N114" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O114" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P114" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q114" s="2" t="n">
+        <v>23.25994300842285</v>
+      </c>
+      <c r="R114" s="2" t="n">
+        <v>20.030113220214844</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 14:00:00</t>
+        </is>
+      </c>
+      <c r="B115" s="2" t="n">
+        <v>0.1983502209186554</v>
+      </c>
+      <c r="C115" s="2" t="n">
+        <v>0.06820414960384369</v>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>2.601372718811035</v>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>2.5042123794555664</v>
+      </c>
+      <c r="F115" s="2" t="n">
+        <v>2.7254714965820312</v>
+      </c>
+      <c r="G115" s="2" t="n">
+        <v>2.6781606674194336</v>
+      </c>
+      <c r="H115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I115" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J115" s="2" t="n">
+        <v>50.66093826293945</v>
+      </c>
+      <c r="K115" s="2" t="n">
+        <v>-19.701908111572266</v>
+      </c>
+      <c r="L115" s="2" t="n">
+        <v>1028.6715087890625</v>
+      </c>
+      <c r="M115" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N115" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O115" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P115" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q115" s="2" t="n">
+        <v>22.200302124023438</v>
+      </c>
+      <c r="R115" s="2" t="n">
+        <v>20.0945987701416</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 15:00:00</t>
+        </is>
+      </c>
+      <c r="B116" s="2" t="n">
+        <v>0.19350893795490265</v>
+      </c>
+      <c r="C116" s="2" t="n">
+        <v>0.06825573742389679</v>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>2.5978596210479736</v>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>2.501039743423462</v>
+      </c>
+      <c r="F116" s="2" t="n">
+        <v>2.7207818031311035</v>
+      </c>
+      <c r="G116" s="2" t="n">
+        <v>2.6657485961914062</v>
+      </c>
+      <c r="H116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I116" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J116" s="2" t="n">
+        <v>50.646053314208984</v>
+      </c>
+      <c r="K116" s="2" t="n">
+        <v>-19.12287712097168</v>
+      </c>
+      <c r="L116" s="2" t="n">
+        <v>1028.7872314453125</v>
+      </c>
+      <c r="M116" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N116" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O116" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P116" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q116" s="2" t="n">
+        <v>23.367023468017578</v>
+      </c>
+      <c r="R116" s="2" t="n">
+        <v>20.148225784301758</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 16:00:00</t>
+        </is>
+      </c>
+      <c r="B117" s="2" t="n">
+        <v>0.17834128439426422</v>
+      </c>
+      <c r="C117" s="2" t="n">
+        <v>0.06830732524394989</v>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>2.5908143520355225</v>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>2.5042572021484375</v>
+      </c>
+      <c r="F117" s="2" t="n">
+        <v>2.720855712890625</v>
+      </c>
+      <c r="G117" s="2" t="n">
+        <v>2.6640470027923584</v>
+      </c>
+      <c r="H117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I117" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J117" s="2" t="n">
+        <v>50.63050079345703</v>
+      </c>
+      <c r="K117" s="2" t="n">
+        <v>-18.52833366394043</v>
+      </c>
+      <c r="L117" s="2" t="n">
+        <v>1028.903076171875</v>
+      </c>
+      <c r="M117" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N117" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O117" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P117" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q117" s="2" t="n">
+        <v>22.901201248168945</v>
+      </c>
+      <c r="R117" s="2" t="n">
+        <v>20.157779693603516</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 17:00:00</t>
+        </is>
+      </c>
+      <c r="B118" s="2" t="n">
+        <v>0.18156567215919495</v>
+      </c>
+      <c r="C118" s="2" t="n">
+        <v>0.06835891306400299</v>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>2.5940303802490234</v>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>2.523231029510498</v>
+      </c>
+      <c r="F118" s="2" t="n">
+        <v>2.7371768951416016</v>
+      </c>
+      <c r="G118" s="2" t="n">
+        <v>2.6817362308502197</v>
+      </c>
+      <c r="H118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I118" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J118" s="2" t="n">
+        <v>50.61930465698242</v>
+      </c>
+      <c r="K118" s="2" t="n">
+        <v>-17.917604446411133</v>
+      </c>
+      <c r="L118" s="2" t="n">
+        <v>1029.018798828125</v>
+      </c>
+      <c r="M118" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N118" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O118" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P118" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q118" s="2" t="n">
+        <v>22.899999618530273</v>
+      </c>
+      <c r="R118" s="2" t="n">
+        <v>20.312971115112305</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 18:00:00</t>
+        </is>
+      </c>
+      <c r="B119" s="2" t="n">
+        <v>0.19021233916282654</v>
+      </c>
+      <c r="C119" s="2" t="n">
+        <v>0.06841050088405609</v>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>2.594576835632324</v>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>2.525848627090454</v>
+      </c>
+      <c r="F119" s="2" t="n">
+        <v>2.7277257442474365</v>
+      </c>
+      <c r="G119" s="2" t="n">
+        <v>2.673717975616455</v>
+      </c>
+      <c r="H119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I119" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J119" s="2" t="n">
+        <v>50.58626937866211</v>
+      </c>
+      <c r="K119" s="2" t="n">
+        <v>-17.30035972595215</v>
+      </c>
+      <c r="L119" s="2" t="n">
+        <v>1029.1346435546875</v>
+      </c>
+      <c r="M119" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N119" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O119" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P119" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q119" s="2" t="n">
+        <v>22.933155059814453</v>
+      </c>
+      <c r="R119" s="2" t="n">
+        <v>19.571025848388672</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 19:00:00</t>
+        </is>
+      </c>
+      <c r="B120" s="2" t="n">
+        <v>0.2315605878829956</v>
+      </c>
+      <c r="C120" s="2" t="n">
+        <v>0.06846208870410919</v>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>2.5965347290039062</v>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>2.5166521072387695</v>
+      </c>
+      <c r="F120" s="2" t="n">
+        <v>2.7315256595611572</v>
+      </c>
+      <c r="G120" s="2" t="n">
+        <v>2.6781437397003174</v>
+      </c>
+      <c r="H120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I120" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J120" s="2" t="n">
+        <v>50.559181213378906</v>
+      </c>
+      <c r="K120" s="2" t="n">
+        <v>-16.68703269958496</v>
+      </c>
+      <c r="L120" s="2" t="n">
+        <v>1029.25048828125</v>
+      </c>
+      <c r="M120" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N120" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O120" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P120" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q120" s="2" t="n">
+        <v>22.665809631347656</v>
+      </c>
+      <c r="R120" s="2" t="n">
+        <v>19.407608032226562</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 20:00:00</t>
+        </is>
+      </c>
+      <c r="B121" s="2" t="n">
+        <v>0.17789427936077118</v>
+      </c>
+      <c r="C121" s="2" t="n">
+        <v>0.06851367652416229</v>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>2.612074375152588</v>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>2.537390947341919</v>
+      </c>
+      <c r="F121" s="2" t="n">
+        <v>2.7321929931640625</v>
+      </c>
+      <c r="G121" s="2" t="n">
+        <v>2.685713529586792</v>
+      </c>
+      <c r="H121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I121" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J121" s="2" t="n">
+        <v>50.529319763183594</v>
+      </c>
+      <c r="K121" s="2" t="n">
+        <v>-16.08609390258789</v>
+      </c>
+      <c r="L121" s="2" t="n">
+        <v>1029.3662109375</v>
+      </c>
+      <c r="M121" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N121" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O121" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P121" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q121" s="2" t="n">
+        <v>22.699600219726562</v>
+      </c>
+      <c r="R121" s="2" t="n">
+        <v>19.633499145507812</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 21:00:00</t>
+        </is>
+      </c>
+      <c r="B122" s="2" t="n">
+        <v>0.20163704454898834</v>
+      </c>
+      <c r="C122" s="2" t="n">
+        <v>0.0685652643442154</v>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>2.5894529819488525</v>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>2.508594036102295</v>
+      </c>
+      <c r="F122" s="2" t="n">
+        <v>2.716923952102661</v>
+      </c>
+      <c r="G122" s="2" t="n">
+        <v>2.6693849563598633</v>
+      </c>
+      <c r="H122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I122" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J122" s="2" t="n">
+        <v>50.49658203125</v>
+      </c>
+      <c r="K122" s="2" t="n">
+        <v>-15.487504005432129</v>
+      </c>
+      <c r="L122" s="2" t="n">
+        <v>1029.4820556640625</v>
+      </c>
+      <c r="M122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N122" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O122" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P122" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q122" s="2" t="n">
+        <v>21.899999618530273</v>
+      </c>
+      <c r="R122" s="2" t="n">
+        <v>19.398685455322266</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 22:00:00</t>
+        </is>
+      </c>
+      <c r="B123" s="2" t="n">
+        <v>0.17985489964485168</v>
+      </c>
+      <c r="C123" s="2" t="n">
+        <v>0.0686168521642685</v>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>2.5625112056732178</v>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>2.491349220275879</v>
+      </c>
+      <c r="F123" s="2" t="n">
+        <v>2.703181505203247</v>
+      </c>
+      <c r="G123" s="2" t="n">
+        <v>2.645022392272949</v>
+      </c>
+      <c r="H123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I123" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J123" s="2" t="n">
+        <v>50.46078109741211</v>
+      </c>
+      <c r="K123" s="2" t="n">
+        <v>-14.889774322509766</v>
+      </c>
+      <c r="L123" s="2" t="n">
+        <v>1029.2227783203125</v>
+      </c>
+      <c r="M123" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N123" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O123" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P123" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q123" s="2" t="n">
+        <v>22.9997501373291</v>
+      </c>
+      <c r="R123" s="2" t="n">
+        <v>19.36017608642578</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-13 23:00:00</t>
+        </is>
+      </c>
+      <c r="B124" s="2" t="n">
+        <v>0.17864000797271729</v>
+      </c>
+      <c r="C124" s="2" t="n">
+        <v>0.0686684399843216</v>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>2.5522801876068115</v>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>2.4935896396636963</v>
+      </c>
+      <c r="F124" s="2" t="n">
+        <v>2.689605951309204</v>
+      </c>
+      <c r="G124" s="2" t="n">
+        <v>2.640326738357544</v>
+      </c>
+      <c r="H124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I124" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J124" s="2" t="n">
+        <v>50.42164611816406</v>
+      </c>
+      <c r="K124" s="2" t="n">
+        <v>-14.288278579711914</v>
+      </c>
+      <c r="L124" s="2" t="n">
+        <v>1028.89453125</v>
+      </c>
+      <c r="M124" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N124" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O124" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P124" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q124" s="2" t="n">
+        <v>22.828554153442383</v>
+      </c>
+      <c r="R124" s="2" t="n">
+        <v>19.321664810180664</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 00:00:00</t>
+        </is>
+      </c>
+      <c r="B125" s="2" t="n">
+        <v>0.18106073141098022</v>
+      </c>
+      <c r="C125" s="2" t="n">
+        <v>0.06872003525495529</v>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>2.5364396572113037</v>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>2.4912681579589844</v>
+      </c>
+      <c r="F125" s="2" t="n">
+        <v>2.6596155166625977</v>
+      </c>
+      <c r="G125" s="2" t="n">
+        <v>2.6231374740600586</v>
+      </c>
+      <c r="H125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I125" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J125" s="2" t="n">
+        <v>50.37971878051758</v>
+      </c>
+      <c r="K125" s="2" t="n">
+        <v>-13.693802833557129</v>
+      </c>
+      <c r="L125" s="2" t="n">
+        <v>1028.5662841796875</v>
+      </c>
+      <c r="M125" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N125" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O125" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P125" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q125" s="2" t="n">
+        <v>22.03324317932129</v>
+      </c>
+      <c r="R125" s="2" t="n">
+        <v>19.19218635559082</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 01:00:00</t>
+        </is>
+      </c>
+      <c r="B126" s="2" t="n">
+        <v>0.17813892662525177</v>
+      </c>
+      <c r="C126" s="2" t="n">
+        <v>0.06877162307500839</v>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>2.560084581375122</v>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>2.5179202556610107</v>
+      </c>
+      <c r="F126" s="2" t="n">
+        <v>2.682560682296753</v>
+      </c>
+      <c r="G126" s="2" t="n">
+        <v>2.640252113342285</v>
+      </c>
+      <c r="H126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I126" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J126" s="2" t="n">
+        <v>50.33462905883789</v>
+      </c>
+      <c r="K126" s="2" t="n">
+        <v>-13.096851348876953</v>
+      </c>
+      <c r="L126" s="2" t="n">
+        <v>1028.238037109375</v>
+      </c>
+      <c r="M126" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N126" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O126" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P126" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q126" s="2" t="n">
+        <v>22.46588706970215</v>
+      </c>
+      <c r="R126" s="2" t="n">
+        <v>18.677101135253906</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 02:00:00</t>
+        </is>
+      </c>
+      <c r="B127" s="2" t="n">
+        <v>0.1757618933916092</v>
+      </c>
+      <c r="C127" s="2" t="n">
+        <v>0.06882321089506149</v>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>2.5402157306671143</v>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>2.496776819229126</v>
+      </c>
+      <c r="F127" s="2" t="n">
+        <v>2.6550307273864746</v>
+      </c>
+      <c r="G127" s="2" t="n">
+        <v>2.6077075004577637</v>
+      </c>
+      <c r="H127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I127" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J127" s="2" t="n">
+        <v>50.286800384521484</v>
+      </c>
+      <c r="K127" s="2" t="n">
+        <v>-12.506353378295898</v>
+      </c>
+      <c r="L127" s="2" t="n">
+        <v>1027.9097900390625</v>
+      </c>
+      <c r="M127" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="N127" s="2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="O127" s="2" t="n">
+        <v>8.800000190734863</v>
+      </c>
+      <c r="P127" s="2" t="n">
+        <v>9.100000381469727</v>
+      </c>
+      <c r="Q127" s="2" t="n">
+        <v>21.899599075317383</v>
+      </c>
+      <c r="R127" s="2" t="n">
+        <v>18.56590461730957</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 03:00:00</t>
+        </is>
+      </c>
+      <c r="B128" s="2" t="n">
+        <v>0.17628268897533417</v>
+      </c>
+      <c r="C128" s="2" t="n">
+        <v>0.0688747987151146</v>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>1.6312735080718994</v>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>1.6102864742279053</v>
+      </c>
+      <c r="F128" s="2" t="n">
+        <v>1.7662246227264404</v>
+      </c>
+      <c r="G128" s="2" t="n">
+        <v>1.6850390434265137</v>
+      </c>
+      <c r="H128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I128" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J128" s="2" t="n">
+        <v>50.23653793334961</v>
+      </c>
+      <c r="K128" s="2" t="n">
+        <v>-11.923712730407715</v>
+      </c>
+      <c r="L128" s="2" t="n">
+        <v>1027.58154296875</v>
+      </c>
+      <c r="M128" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="N128" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="O128" s="2" t="n">
+        <v>5.0</v>
+      </c>
+      <c r="P128" s="2" t="n">
+        <v>5.099999904632568</v>
+      </c>
+      <c r="Q128" s="2" t="n">
+        <v>19.300334930419922</v>
+      </c>
+      <c r="R128" s="2" t="n">
+        <v>18.441740036010742</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 04:00:00</t>
+        </is>
+      </c>
+      <c r="B129" s="2" t="n">
+        <v>0.2165335714817047</v>
+      </c>
+      <c r="C129" s="2" t="n">
+        <v>0.0689263865351677</v>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>2.3447108268737793</v>
+      </c>
+      <c r="F129" s="2" t="n">
+        <v>2.4854516983032227</v>
+      </c>
+      <c r="G129" s="2" t="n">
+        <v>2.4464621543884277</v>
+      </c>
+      <c r="H129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I129" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J129" s="2" t="n">
+        <v>50.19096755981445</v>
+      </c>
+      <c r="K129" s="2" t="n">
+        <v>-11.422249794006348</v>
+      </c>
+      <c r="L129" s="2" t="n">
+        <v>1027.2532958984375</v>
+      </c>
+      <c r="M129" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N129" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O129" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P129" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="Q129" s="2" t="n">
+        <v>18.266944885253906</v>
+      </c>
+      <c r="R129" s="2" t="n">
+        <v>18.317575454711914</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 05:00:00</t>
+        </is>
+      </c>
+      <c r="B130" s="2" t="n">
+        <v>0.17874151468276978</v>
+      </c>
+      <c r="C130" s="2" t="n">
+        <v>0.0689779743552208</v>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>2.3411898612976074</v>
+      </c>
+      <c r="F130" s="2" t="n">
+        <v>2.4780497550964355</v>
+      </c>
+      <c r="G130" s="2" t="n">
+        <v>2.4571449756622314</v>
+      </c>
+      <c r="H130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I130" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J130" s="2" t="n">
+        <v>50.142398834228516</v>
+      </c>
+      <c r="K130" s="2" t="n">
+        <v>-10.914265632629395</v>
+      </c>
+      <c r="L130" s="2" t="n">
+        <v>1027.0455322265625</v>
+      </c>
+      <c r="M130" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N130" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O130" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P130" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q130" s="2" t="n">
+        <v>19.800201416015625</v>
+      </c>
+      <c r="R130" s="2" t="n">
+        <v>18.58901596069336</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 06:00:00</t>
+        </is>
+      </c>
+      <c r="B131" s="2" t="n">
+        <v>0.17706997692584991</v>
+      </c>
+      <c r="C131" s="2" t="n">
+        <v>0.0690295621752739</v>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>2.3580286502838135</v>
+      </c>
+      <c r="F131" s="2" t="n">
+        <v>2.5127577781677246</v>
+      </c>
+      <c r="G131" s="2" t="n">
+        <v>2.473693370819092</v>
+      </c>
+      <c r="H131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>50.091773986816406</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>-10.407147407531738</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>1026.9434814453125</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="Q131" s="2" t="n">
+        <v>19.299396514892578</v>
+      </c>
+      <c r="R131" s="2" t="n">
+        <v>19.108787536621094</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 07:00:00</t>
+        </is>
+      </c>
+      <c r="B132" s="2" t="n">
+        <v>0.17600643634796143</v>
+      </c>
+      <c r="C132" s="2" t="n">
+        <v>0.069081149995327</v>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>2.5663845539093018</v>
+      </c>
+      <c r="F132" s="2" t="n">
+        <v>2.7045912742614746</v>
+      </c>
+      <c r="G132" s="2" t="n">
+        <v>2.7100532054901123</v>
+      </c>
+      <c r="H132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>50.03758239746094</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-9.890209197998047</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>1026.8414306640625</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>6.200000286102295</v>
+      </c>
+      <c r="Q132" s="2" t="n">
+        <v>20.471603393554688</v>
+      </c>
+      <c r="R132" s="2" t="n">
+        <v>18.899999618530273</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="B133" s="2" t="n">
+        <v>0.1789446771144867</v>
+      </c>
+      <c r="C133" s="2" t="n">
+        <v>0.0691327378153801</v>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>2.5657401084899902</v>
+      </c>
+      <c r="F133" s="2" t="n">
+        <v>2.8149869441986084</v>
+      </c>
+      <c r="G133" s="2" t="n">
+        <v>2.7721669673919678</v>
+      </c>
+      <c r="H133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I133" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J133" s="2" t="n">
+        <v>49.9630126953125</v>
+      </c>
+      <c r="K133" s="2" t="n">
+        <v>-9.377840042114258</v>
+      </c>
+      <c r="L133" s="2" t="n">
+        <v>1026.7393798828125</v>
+      </c>
+      <c r="M133" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N133" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O133" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P133" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q133" s="2" t="n">
+        <v>20.519840240478516</v>
+      </c>
+      <c r="R133" s="2" t="n">
+        <v>19.366212844848633</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 09:00:00</t>
+        </is>
+      </c>
+      <c r="B134" s="2" t="n">
+        <v>0.2292480617761612</v>
+      </c>
+      <c r="C134" s="2" t="n">
+        <v>0.0691843256354332</v>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>2.5713326930999756</v>
+      </c>
+      <c r="F134" s="2" t="n">
+        <v>2.8448386192321777</v>
+      </c>
+      <c r="G134" s="2" t="n">
+        <v>2.793445348739624</v>
+      </c>
+      <c r="H134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I134" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J134" s="2" t="n">
+        <v>49.92313003540039</v>
+      </c>
+      <c r="K134" s="2" t="n">
+        <v>-8.863600730895996</v>
+      </c>
+      <c r="L134" s="2" t="n">
+        <v>1026.63720703125</v>
+      </c>
+      <c r="M134" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N134" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O134" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P134" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q134" s="2" t="n">
+        <v>19.640104293823242</v>
+      </c>
+      <c r="R134" s="2" t="n">
+        <v>20.093978881835938</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 10:00:00</t>
+        </is>
+      </c>
+      <c r="B135" s="2" t="n">
+        <v>0.21501922607421875</v>
+      </c>
+      <c r="C135" s="2" t="n">
+        <v>0.0692359209060669</v>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>2.5259909629821777</v>
+      </c>
+      <c r="F135" s="2" t="n">
+        <v>2.8036627769470215</v>
+      </c>
+      <c r="G135" s="2" t="n">
+        <v>2.7532029151916504</v>
+      </c>
+      <c r="H135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I135" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J135" s="2" t="n">
+        <v>49.84292984008789</v>
+      </c>
+      <c r="K135" s="2" t="n">
+        <v>-8.367640495300293</v>
+      </c>
+      <c r="L135" s="2" t="n">
+        <v>1026.53515625</v>
+      </c>
+      <c r="M135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N135" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O135" s="2" t="n">
+        <v>6.300000190734863</v>
+      </c>
+      <c r="P135" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q135" s="2" t="n">
+        <v>19.566484451293945</v>
+      </c>
+      <c r="R135" s="2" t="n">
+        <v>20.244369506835938</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 11:00:00</t>
+        </is>
+      </c>
+      <c r="B136" s="2" t="n">
+        <v>0.17696721851825714</v>
+      </c>
+      <c r="C136" s="2" t="n">
+        <v>0.06928750872612</v>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>2.54586124420166</v>
+      </c>
+      <c r="F136" s="2" t="n">
+        <v>2.8468127250671387</v>
+      </c>
+      <c r="G136" s="2" t="n">
+        <v>2.8002946376800537</v>
+      </c>
+      <c r="H136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I136" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J136" s="2" t="n">
+        <v>49.77464294433594</v>
+      </c>
+      <c r="K136" s="2" t="n">
+        <v>-7.875698089599609</v>
+      </c>
+      <c r="L136" s="2" t="n">
+        <v>1026.43310546875</v>
+      </c>
+      <c r="M136" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N136" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O136" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P136" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q136" s="2" t="n">
+        <v>19.600000381469727</v>
+      </c>
+      <c r="R136" s="2" t="n">
+        <v>20.57601547241211</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 12:00:00</t>
+        </is>
+      </c>
+      <c r="B137" s="2" t="n">
+        <v>0.17926587164402008</v>
+      </c>
+      <c r="C137" s="2" t="n">
+        <v>0.0693390965461731</v>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>2.545156478881836</v>
+      </c>
+      <c r="F137" s="2" t="n">
+        <v>2.847801446914673</v>
+      </c>
+      <c r="G137" s="2" t="n">
+        <v>2.78814697265625</v>
+      </c>
+      <c r="H137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I137" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J137" s="2" t="n">
+        <v>49.725364685058594</v>
+      </c>
+      <c r="K137" s="2" t="n">
+        <v>-7.369725704193115</v>
+      </c>
+      <c r="L137" s="2" t="n">
+        <v>1026.3310546875</v>
+      </c>
+      <c r="M137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N137" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O137" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P137" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q137" s="2" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="R137" s="2" t="n">
+        <v>20.77025604248047</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 13:00:00</t>
+        </is>
+      </c>
+      <c r="B138" s="2" t="n">
+        <v>0.20282410085201263</v>
+      </c>
+      <c r="C138" s="2" t="n">
+        <v>0.0693906843662262</v>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>2.5422463417053223</v>
+      </c>
+      <c r="F138" s="2" t="n">
+        <v>2.8420889377593994</v>
+      </c>
+      <c r="G138" s="2" t="n">
+        <v>2.7837164402008057</v>
+      </c>
+      <c r="H138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I138" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J138" s="2" t="n">
+        <v>49.66425704956055</v>
+      </c>
+      <c r="K138" s="2" t="n">
+        <v>-6.863493919372559</v>
+      </c>
+      <c r="L138" s="2" t="n">
+        <v>1026.2288818359375</v>
+      </c>
+      <c r="M138" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N138" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O138" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P138" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q138" s="2" t="n">
+        <v>19.599899291992188</v>
+      </c>
+      <c r="R138" s="2" t="n">
+        <v>20.8096866607666</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 14:00:00</t>
+        </is>
+      </c>
+      <c r="B139" s="2" t="n">
+        <v>0.17890526354312897</v>
+      </c>
+      <c r="C139" s="2" t="n">
+        <v>0.0694422721862793</v>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>2.53859806060791</v>
+      </c>
+      <c r="F139" s="2" t="n">
+        <v>2.8215720653533936</v>
+      </c>
+      <c r="G139" s="2" t="n">
+        <v>2.791100025177002</v>
+      </c>
+      <c r="H139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I139" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J139" s="2" t="n">
+        <v>49.63691329956055</v>
+      </c>
+      <c r="K139" s="2" t="n">
+        <v>-6.346550464630127</v>
+      </c>
+      <c r="L139" s="2" t="n">
+        <v>1026.1268310546875</v>
+      </c>
+      <c r="M139" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N139" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O139" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P139" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q139" s="2" t="n">
+        <v>20.380056381225586</v>
+      </c>
+      <c r="R139" s="2" t="n">
+        <v>20.838220596313477</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 15:00:00</t>
+        </is>
+      </c>
+      <c r="B140" s="2" t="n">
+        <v>0.17864756286144257</v>
+      </c>
+      <c r="C140" s="2" t="n">
+        <v>0.0694938600063324</v>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>2.5359346866607666</v>
+      </c>
+      <c r="F140" s="2" t="n">
+        <v>2.837867259979248</v>
+      </c>
+      <c r="G140" s="2" t="n">
+        <v>2.8135690689086914</v>
+      </c>
+      <c r="H140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I140" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J140" s="2" t="n">
+        <v>49.63026428222656</v>
+      </c>
+      <c r="K140" s="2" t="n">
+        <v>-5.8215436935424805</v>
+      </c>
+      <c r="L140" s="2" t="n">
+        <v>1026.0247802734375</v>
+      </c>
+      <c r="M140" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N140" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O140" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P140" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q140" s="2" t="n">
+        <v>20.90020179748535</v>
+      </c>
+      <c r="R140" s="2" t="n">
+        <v>21.700000762939453</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 16:00:00</t>
+        </is>
+      </c>
+      <c r="B141" s="2" t="n">
+        <v>0.1935836225748062</v>
+      </c>
+      <c r="C141" s="2" t="n">
+        <v>0.0695454478263855</v>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>2.5570080280303955</v>
+      </c>
+      <c r="F141" s="2" t="n">
+        <v>2.8623266220092773</v>
+      </c>
+      <c r="G141" s="2" t="n">
+        <v>2.805452823638916</v>
+      </c>
+      <c r="H141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I141" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J141" s="2" t="n">
+        <v>49.66441345214844</v>
+      </c>
+      <c r="K141" s="2" t="n">
+        <v>-5.2815117835998535</v>
+      </c>
+      <c r="L141" s="2" t="n">
+        <v>1025.663818359375</v>
+      </c>
+      <c r="M141" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N141" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O141" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P141" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q141" s="2" t="n">
+        <v>22.04949951171875</v>
+      </c>
+      <c r="R141" s="2" t="n">
+        <v>22.286420822143555</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 17:00:00</t>
+        </is>
+      </c>
+      <c r="B142" s="2" t="n">
+        <v>0.19552168250083923</v>
+      </c>
+      <c r="C142" s="2" t="n">
+        <v>0.0695970356464386</v>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>2.5662636756896973</v>
+      </c>
+      <c r="F142" s="2" t="n">
+        <v>2.8604605197906494</v>
+      </c>
+      <c r="G142" s="2" t="n">
+        <v>2.807880163192749</v>
+      </c>
+      <c r="H142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I142" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J142" s="2" t="n">
+        <v>49.72101974487305</v>
+      </c>
+      <c r="K142" s="2" t="n">
+        <v>-4.739039421081543</v>
+      </c>
+      <c r="L142" s="2" t="n">
+        <v>1025.2200927734375</v>
+      </c>
+      <c r="M142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N142" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O142" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P142" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q142" s="2" t="n">
+        <v>20.200000762939453</v>
+      </c>
+      <c r="R142" s="2" t="n">
+        <v>21.808135986328125</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 18:00:00</t>
+        </is>
+      </c>
+      <c r="B143" s="2" t="n">
+        <v>0.1963316649198532</v>
+      </c>
+      <c r="C143" s="2" t="n">
+        <v>0.0696486234664917</v>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>2.5514984130859375</v>
+      </c>
+      <c r="F143" s="2" t="n">
+        <v>2.853692054748535</v>
+      </c>
+      <c r="G143" s="2" t="n">
+        <v>2.8220090866088867</v>
+      </c>
+      <c r="H143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I143" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J143" s="2" t="n">
+        <v>49.85843276977539</v>
+      </c>
+      <c r="K143" s="2" t="n">
+        <v>-4.230395793914795</v>
+      </c>
+      <c r="L143" s="2" t="n">
+        <v>1024.7763671875</v>
+      </c>
+      <c r="M143" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N143" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O143" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P143" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q143" s="2" t="n">
+        <v>21.53994369506836</v>
+      </c>
+      <c r="R143" s="2" t="n">
+        <v>22.40555191040039</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 19:00:00</t>
+        </is>
+      </c>
+      <c r="B144" s="2" t="n">
+        <v>0.241347074508667</v>
+      </c>
+      <c r="C144" s="2" t="n">
+        <v>0.0697002112865448</v>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>2.5568459033966064</v>
+      </c>
+      <c r="F144" s="2" t="n">
+        <v>2.858367919921875</v>
+      </c>
+      <c r="G144" s="2" t="n">
+        <v>2.8306803703308105</v>
+      </c>
+      <c r="H144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I144" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J144" s="2" t="n">
+        <v>49.990234375</v>
+      </c>
+      <c r="K144" s="2" t="n">
+        <v>-3.7122137546539307</v>
+      </c>
+      <c r="L144" s="2" t="n">
+        <v>1024.3326416015625</v>
+      </c>
+      <c r="M144" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N144" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O144" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P144" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q144" s="2" t="n">
+        <v>19.59959602355957</v>
+      </c>
+      <c r="R144" s="2" t="n">
+        <v>22.210264205932617</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 20:00:00</t>
+        </is>
+      </c>
+      <c r="B145" s="2" t="n">
+        <v>0.23652933537960052</v>
+      </c>
+      <c r="C145" s="2" t="n">
+        <v>0.0697517991065979</v>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>2.5418131351470947</v>
+      </c>
+      <c r="F145" s="2" t="n">
+        <v>2.83909010887146</v>
+      </c>
+      <c r="G145" s="2" t="n">
+        <v>2.808765411376953</v>
+      </c>
+      <c r="H145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I145" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J145" s="2" t="n">
+        <v>50.131813049316406</v>
+      </c>
+      <c r="K145" s="2" t="n">
+        <v>-3.186535596847534</v>
+      </c>
+      <c r="L145" s="2" t="n">
+        <v>1024.0223388671875</v>
+      </c>
+      <c r="M145" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N145" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O145" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P145" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q145" s="2" t="n">
+        <v>20.298803329467773</v>
+      </c>
+      <c r="R145" s="2" t="n">
+        <v>21.4838809967041</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 21:00:00</t>
+        </is>
+      </c>
+      <c r="B146" s="2" t="n">
+        <v>0.25327828526496887</v>
+      </c>
+      <c r="C146" s="2" t="n">
+        <v>0.0698033943772316</v>
+      </c>
+      <c r="D146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>2.5284781455993652</v>
+      </c>
+      <c r="F146" s="2" t="n">
+        <v>2.8169190883636475</v>
+      </c>
+      <c r="G146" s="2" t="n">
+        <v>2.780064582824707</v>
+      </c>
+      <c r="H146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I146" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J146" s="2" t="n">
+        <v>50.24809646606445</v>
+      </c>
+      <c r="K146" s="2" t="n">
+        <v>-2.638733386993408</v>
+      </c>
+      <c r="L146" s="2" t="n">
+        <v>1024.11181640625</v>
+      </c>
+      <c r="M146" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="N146" s="2" t="n">
+        <v>6.800000190734863</v>
+      </c>
+      <c r="O146" s="2" t="n">
+        <v>6.400000095367432</v>
+      </c>
+      <c r="P146" s="2" t="n">
+        <v>6.599999904632568</v>
+      </c>
+      <c r="Q146" s="2" t="n">
+        <v>20.216625213623047</v>
+      </c>
+      <c r="R146" s="2" t="n">
+        <v>20.600000381469727</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 22:00:00</t>
+        </is>
+      </c>
+      <c r="B147" s="2" t="n">
+        <v>0.18480513989925385</v>
+      </c>
+      <c r="C147" s="2" t="n">
+        <v>0.0698549821972847</v>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>2.2834556102752686</v>
+      </c>
+      <c r="F147" s="2" t="n">
+        <v>2.5368459224700928</v>
+      </c>
+      <c r="G147" s="2" t="n">
+        <v>2.4793002605438232</v>
+      </c>
+      <c r="H147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I147" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J147" s="2" t="n">
+        <v>50.33964157104492</v>
+      </c>
+      <c r="K147" s="2" t="n">
+        <v>-2.0863864421844482</v>
+      </c>
+      <c r="L147" s="2" t="n">
+        <v>1024.2012939453125</v>
+      </c>
+      <c r="M147" s="2" t="n">
+        <v>5.800000190734863</v>
+      </c>
+      <c r="N147" s="2" t="n">
+        <v>5.900000095367432</v>
+      </c>
+      <c r="O147" s="2" t="n">
+        <v>5.599999904632568</v>
+      </c>
+      <c r="P147" s="2" t="n">
+        <v>5.700000286102295</v>
+      </c>
+      <c r="Q147" s="2" t="n">
+        <v>19.200000762939453</v>
+      </c>
+      <c r="R147" s="2" t="n">
+        <v>20.965635299682617</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-14 23:00:00</t>
+        </is>
+      </c>
+      <c r="B148" s="2" t="n">
+        <v>0.17736004292964935</v>
+      </c>
+      <c r="C148" s="2" t="n">
+        <v>0.0699065700173378</v>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>1.6308640241622925</v>
+      </c>
+      <c r="F148" s="2" t="n">
+        <v>1.737355351448059</v>
+      </c>
+      <c r="G148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I148" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J148" s="2" t="n">
+        <v>50.41270446777344</v>
+      </c>
+      <c r="K148" s="2" t="n">
+        <v>-1.6381715536117554</v>
+      </c>
+      <c r="L148" s="2" t="n">
+        <v>1024.290771484375</v>
+      </c>
+      <c r="M148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="N148" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="O148" s="2" t="n">
+        <v>1.3000000715255737</v>
+      </c>
+      <c r="P148" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="Q148" s="2" t="n">
+        <v>11.999942779541016</v>
+      </c>
+      <c r="R148" s="2" t="n">
+        <v>21.600000381469727</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-15 00:00:00</t>
+        </is>
+      </c>
+      <c r="B149" s="2" t="n">
+        <v>0.19042575359344482</v>
+      </c>
+      <c r="C149" s="2" t="n">
+        <v>0.0699581578373909</v>
+      </c>
+      <c r="D149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>2.0553810596466064</v>
+      </c>
+      <c r="F149" s="2" t="n">
+        <v>2.1428894996643066</v>
+      </c>
+      <c r="G149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I149" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J149" s="2" t="n">
+        <v>50.45958709716797</v>
+      </c>
+      <c r="K149" s="2" t="n">
+        <v>-1.3506032228469849</v>
+      </c>
+      <c r="L149" s="2" t="n">
+        <v>1024.380126953125</v>
+      </c>
+      <c r="M149" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="N149" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="O149" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="P149" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="Q149" s="2" t="n">
+        <v>12.900199890136719</v>
+      </c>
+      <c r="R149" s="2" t="n">
+        <v>21.600000381469727</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-15 01:00:00</t>
+        </is>
+      </c>
+      <c r="B150" s="2" t="n">
+        <v>0.18088427186012268</v>
+      </c>
+      <c r="C150" s="2" t="n">
+        <v>0.070009745657444</v>
+      </c>
+      <c r="D150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>1.9848541021347046</v>
+      </c>
+      <c r="F150" s="2" t="n">
+        <v>2.0743796825408936</v>
+      </c>
+      <c r="G150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" s="2" t="n">
+        <v>50.50784683227539</v>
+      </c>
+      <c r="K150" s="2" t="n">
+        <v>-1.0606266260147095</v>
+      </c>
+      <c r="L150" s="2" t="n">
+        <v>1024.4696044921875</v>
+      </c>
+      <c r="M150" s="2" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="N150" s="2" t="n">
+        <v>2.4000000953674316</v>
+      </c>
+      <c r="O150" s="2" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="P150" s="2" t="n">
+        <v>2.299999952316284</v>
+      </c>
+      <c r="Q150" s="2" t="n">
+        <v>14.399198532104492</v>
+      </c>
+      <c r="R150" s="2" t="n">
+        <v>20.875417709350586</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-15 02:00:00</t>
+        </is>
+      </c>
+      <c r="B151" s="2" t="n">
+        <v>0.21742086112499237</v>
+      </c>
+      <c r="C151" s="2" t="n">
+        <v>0.0700613334774971</v>
+      </c>
+      <c r="D151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>1.1292507648468018</v>
+      </c>
+      <c r="F151" s="2" t="n">
+        <v>1.176737666130066</v>
+      </c>
+      <c r="G151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H151" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I151" s="2" t="n">
+        <v>2.9273998737335205</v>
+      </c>
+      <c r="J151" s="2" t="n">
+        <v>50.66697692871094</v>
+      </c>
+      <c r="K151" s="2" t="n">
+        <v>-0.9691045880317688</v>
+      </c>
+      <c r="L151" s="2" t="n">
+        <v>1024.55908203125</v>
+      </c>
+      <c r="M151" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="N151" s="2" t="n">
+        <v>2.1000001430511475</v>
+      </c>
+      <c r="O151" s="2" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="P151" s="2" t="n">
+        <v>2.200000047683716</v>
+      </c>
+      <c r="Q151" s="2" t="n">
+        <v>12.429956436157227</v>
+      </c>
+      <c r="R151" s="2" t="n">
+        <v>20.638851165771484</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-15 03:00:00</t>
+        </is>
+      </c>
+      <c r="B152" s="2" t="n">
+        <v>0.0633181780576706</v>
+      </c>
+      <c r="C152" s="2" t="n">
+        <v>0.0701129212975502</v>
+      </c>
+      <c r="D152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>1.0442278385162354</v>
+      </c>
+      <c r="F152" s="2" t="n">
+        <v>1.0645194053649902</v>
+      </c>
+      <c r="G152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H152" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I152" s="2" t="n">
+        <v>2.7183001041412354</v>
+      </c>
+      <c r="J152" s="2" t="n">
+        <v>50.77562713623047</v>
+      </c>
+      <c r="K152" s="2" t="n">
+        <v>-1.307695984840393</v>
+      </c>
+      <c r="L152" s="2" t="n">
+        <v>1024.6485595703125</v>
+      </c>
+      <c r="M152" s="2" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N152" s="2" t="n">
+        <v>1.600000023841858</v>
+      </c>
+      <c r="O152" s="2" t="n">
+        <v>1.399999976158142</v>
+      </c>
+      <c r="P152" s="2" t="n">
+        <v>2.0</v>
+      </c>
+      <c r="Q152" s="2" t="n">
+        <v>10.739957809448242</v>
+      </c>
+      <c r="R152" s="2" t="n">
+        <v>20.36604881286621</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="inlineStr">
+        <is>
+          <t>2022-07-15 04:00:00</t>
+        </is>
+      </c>
+      <c r="B153" s="2" t="n">
+        <v>0.14853990077972412</v>
+      </c>
+      <c r="C153" s="2" t="n">
+        <v>0.0701645091176033</v>
+      </c>
+      <c r="D153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>0.7298955917358398</v>
+      </c>
+      <c r="F153" s="2" t="n">
+        <v>0.7959344387054443</v>
+      </c>
+      <c r="G153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H153" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I153" s="2" t="n">
+        <v>2.2592999935150146</v>
+      </c>
+      <c r="J153" s="2" t="n">
+        <v>50.89139938354492</v>
+      </c>
+      <c r="K153" s="2" t="n">
+        <v>-1.40876042842865</v>
+      </c>
+      <c r="L153" s="2" t="n">
+        <v>1024.7379150390625</v>
+      </c>
+      <c r="M153" s="2" t="n">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="N153" s="2" t="n">
+        <v>0.30000001192092896</v>
+      </c>
+      <c r="O153" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="P153" s="2" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Q153" s="2" t="n">
+        <v>6.8545732498168945</v>
+      </c>
+      <c r="R153" s="2" t="n">
+        <v>18.562572479248047</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="inlineStr">
+        <is>
           <t>2022-07-15 05:00:00</t>
         </is>
       </c>
-      <c r="B78" s="2" t="n">
+      <c r="B154" s="2" t="n">
         <v>0.17633958160877228</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C154" s="2" t="n">
         <v>0.0702160969376564</v>
       </c>
-      <c r="D78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="E78" s="2" t="n">
+      <c r="D154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="E154" s="2" t="n">
         <v>0.9748050570487976</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F154" s="2" t="n">
         <v>1.0439821481704712</v>
       </c>
-      <c r="G78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="H78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J78" s="2" t="n">
+      <c r="G154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J154" s="2" t="n">
         <v>50.90430450439453</v>
       </c>
-      <c r="K78" s="2" t="n">
+      <c r="K154" s="2" t="n">
         <v>-1.428668737411499</v>
       </c>
-      <c r="L78" s="2" t="n">
+      <c r="L154" s="2" t="n">
         <v>1024.827392578125</v>
       </c>
-      <c r="M78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P78" s="2" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q78" s="2" t="n">
+      <c r="M154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P154" s="2" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q154" s="2" t="n">
         <v>-0.10000000149011612</v>
       </c>
-      <c r="R78" s="2" t="n">
+      <c r="R154" s="2" t="n">
         <v>20.12405014038086</v>
       </c>
     </row>
